--- a/crawler/contentxls/content.xlsx
+++ b/crawler/contentxls/content.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spike\Django\minibondforstaging\crawler\contentxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\minibondforstaging\crawler\contentxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA744C68-0ECC-4330-BC1E-288EF1910553}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,15 @@
     <sheet name="Sheet6" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$298</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$C$24</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="687">
   <si>
     <t>title</t>
   </si>
@@ -2134,17 +2135,13 @@
   </si>
   <si>
     <t>811上岸了，“债权人”微信公众号发的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">刚刚 看了 雪球的文章 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2211,7 +2208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2286,6 +2283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2321,6 +2335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2496,11 +2527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J342"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2538,913 +2569,913 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>42</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>42</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>42</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>672</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>672</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>42</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>42</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>42</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>42</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>42</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>42</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>42</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>42</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>42</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>42</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>42</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <v>42</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>42</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>42</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>42</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>42</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>42</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>42</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>42</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G27">
         <v>42</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G28">
         <v>42</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="G29">
         <v>42</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>42</v>
       </c>
       <c r="J30" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>673</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>673</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G31">
         <v>42</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="B32" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G32">
         <v>42</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G33">
         <v>42</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>42</v>
       </c>
       <c r="J34" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>42</v>
       </c>
       <c r="J35" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>42</v>
       </c>
       <c r="J36" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G37">
         <v>42</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G38">
         <v>42</v>
       </c>
       <c r="J38" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>42</v>
       </c>
       <c r="J39" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>42</v>
       </c>
       <c r="J40" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G41">
         <v>42</v>
       </c>
       <c r="J41" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="B42" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G42">
         <v>42</v>
       </c>
       <c r="J42" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="J43" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G44">
         <v>42</v>
       </c>
       <c r="J44" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3457,372 +3488,372 @@
       </c>
       <c r="J45" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>674</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>42</v>
       </c>
       <c r="J46" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G47">
         <v>42</v>
       </c>
       <c r="J47" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G48">
         <v>42</v>
       </c>
       <c r="J48" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>672</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s">
-        <v>672</v>
+        <v>320</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G49">
         <v>42</v>
       </c>
       <c r="J49" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>675</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>675</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G50">
         <v>42</v>
       </c>
       <c r="J50" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G51">
         <v>42</v>
       </c>
       <c r="J51" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>400</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>321</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G52">
         <v>42</v>
       </c>
       <c r="J52" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>42</v>
       </c>
       <c r="J53" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>42</v>
       </c>
       <c r="J54" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G55">
         <v>42</v>
       </c>
       <c r="J55" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G56">
         <v>42</v>
       </c>
       <c r="J56" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>42</v>
       </c>
       <c r="J57" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G58">
         <v>42</v>
       </c>
       <c r="J58" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>42</v>
       </c>
       <c r="J59" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>42</v>
       </c>
       <c r="J60" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G61">
         <v>42</v>
       </c>
       <c r="J61" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G62">
         <v>42</v>
       </c>
       <c r="J62" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3835,123 +3866,123 @@
       </c>
       <c r="J63" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G64">
         <v>42</v>
       </c>
       <c r="J64" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G65">
         <v>42</v>
       </c>
       <c r="J65" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>42</v>
       </c>
       <c r="J66" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G67">
         <v>42</v>
       </c>
       <c r="J67" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>416</v>
+        <v>676</v>
       </c>
       <c r="B68" t="s">
-        <v>416</v>
+        <v>676</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G68">
         <v>42</v>
       </c>
       <c r="J68" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3961,729 +3992,729 @@
       </c>
       <c r="J69" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G70">
         <v>42</v>
       </c>
       <c r="J70" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G71">
         <v>42</v>
       </c>
       <c r="J71" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="B72" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G72">
         <v>42</v>
       </c>
       <c r="J72" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>42</v>
       </c>
       <c r="J73" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>42</v>
       </c>
       <c r="J74" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>673</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s">
-        <v>673</v>
+        <v>456</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G75">
         <v>42</v>
       </c>
       <c r="J75" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G76">
         <v>42</v>
       </c>
       <c r="J76" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>42</v>
       </c>
       <c r="J77" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>42</v>
       </c>
       <c r="J78" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G79">
         <v>42</v>
       </c>
       <c r="J79" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G80">
         <v>42</v>
       </c>
       <c r="J80" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G81">
         <v>42</v>
       </c>
       <c r="J81" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>42</v>
       </c>
       <c r="J82" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="B83" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G83">
         <v>42</v>
       </c>
       <c r="J83" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="B84" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G84">
         <v>42</v>
       </c>
       <c r="J84" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G85">
         <v>42</v>
       </c>
       <c r="J85" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G86">
         <v>42</v>
       </c>
       <c r="J86" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <v>42</v>
       </c>
       <c r="J87" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>42</v>
       </c>
       <c r="J88" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="B89" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <v>42</v>
       </c>
       <c r="J89" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B90" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>42</v>
       </c>
       <c r="J90" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="B91" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>42</v>
       </c>
       <c r="J91" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G92">
         <v>42</v>
       </c>
       <c r="J92" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>42</v>
       </c>
       <c r="J93" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>675</v>
+        <v>474</v>
       </c>
       <c r="B94" t="s">
-        <v>675</v>
+        <v>474</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>42</v>
       </c>
       <c r="J94" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>435</v>
+        <v>678</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>678</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G95">
         <v>42</v>
       </c>
       <c r="J95" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G96">
         <v>42</v>
       </c>
       <c r="J96" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G97">
         <v>42</v>
       </c>
       <c r="J97" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="B98" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G98">
         <v>42</v>
       </c>
       <c r="J98" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="B99" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>42</v>
       </c>
       <c r="J99" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="B100" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>42</v>
       </c>
       <c r="J100" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>42</v>
       </c>
       <c r="J101" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="B102" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G102">
         <v>42</v>
       </c>
       <c r="J102" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="B103" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G103">
         <v>42</v>
       </c>
       <c r="J103" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="B104" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4696,1029 +4727,1029 @@
       </c>
       <c r="J104" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="B105" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G105">
         <v>42</v>
       </c>
       <c r="J105" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="B106" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G106">
         <v>42</v>
       </c>
       <c r="J106" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="B107" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G107">
         <v>42</v>
       </c>
       <c r="J107" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="B108" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>42</v>
       </c>
       <c r="J108" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B109" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G109">
         <v>42</v>
       </c>
       <c r="J109" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="B110" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G110">
         <v>42</v>
       </c>
       <c r="J110" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B111" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G111">
         <v>42</v>
       </c>
       <c r="J111" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>676</v>
+        <v>491</v>
       </c>
       <c r="B112" t="s">
-        <v>676</v>
+        <v>491</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>42</v>
       </c>
       <c r="J112" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="B113" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>42</v>
       </c>
       <c r="J113" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="B114" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>42</v>
       </c>
       <c r="J114" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="B115" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G115">
         <v>42</v>
       </c>
       <c r="J115" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B116" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>42</v>
       </c>
       <c r="J116" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="B117" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G117">
         <v>42</v>
       </c>
       <c r="J117" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="B118" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G118">
         <v>42</v>
       </c>
       <c r="J118" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="B119" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G119">
         <v>42</v>
       </c>
       <c r="J119" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="B120" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G120">
         <v>42</v>
       </c>
       <c r="J120" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="B121" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G121">
         <v>42</v>
       </c>
       <c r="J121" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="B122" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G122">
         <v>42</v>
       </c>
       <c r="J122" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B123" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G123">
         <v>42</v>
       </c>
       <c r="J123" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="B124" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G124">
         <v>42</v>
       </c>
       <c r="J124" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="B125" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G125">
         <v>42</v>
       </c>
       <c r="J125" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="B126" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>42</v>
       </c>
       <c r="J126" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="B127" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>42</v>
       </c>
       <c r="J127" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="B128" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G128">
         <v>42</v>
       </c>
       <c r="J128" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="B129" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G129">
         <v>42</v>
       </c>
       <c r="J129" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="B130" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>42</v>
       </c>
       <c r="J130" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="B131" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>42</v>
       </c>
       <c r="J131" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="B132" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G132">
         <v>42</v>
       </c>
       <c r="J132" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="B133" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G133">
         <v>42</v>
       </c>
       <c r="J133" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>677</v>
+        <v>513</v>
       </c>
       <c r="B134" t="s">
-        <v>677</v>
+        <v>513</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G134">
         <v>42</v>
       </c>
       <c r="J134" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="B135" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G135">
         <v>42</v>
       </c>
       <c r="J135" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="B136" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G136">
         <v>42</v>
       </c>
       <c r="J136" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="B137" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G137">
         <v>42</v>
       </c>
       <c r="J137" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="B138" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G138">
         <v>42</v>
       </c>
       <c r="J138" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>678</v>
+        <v>518</v>
       </c>
       <c r="B139" t="s">
-        <v>678</v>
+        <v>518</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G139">
         <v>42</v>
       </c>
       <c r="J139" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B140" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G140">
         <v>42</v>
       </c>
       <c r="J140" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="B141" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>42</v>
       </c>
       <c r="J141" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="B142" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G142">
         <v>42</v>
       </c>
       <c r="J142" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B143" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G143">
         <v>42</v>
       </c>
       <c r="J143" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B144" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G144">
         <v>42</v>
       </c>
       <c r="J144" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="B145" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>42</v>
       </c>
       <c r="J145" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="B146" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>42</v>
       </c>
       <c r="J146" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="B147" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G147">
         <v>42</v>
       </c>
       <c r="J147" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="B148" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G148">
         <v>42</v>
       </c>
       <c r="J148" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="B149" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G149">
         <v>42</v>
       </c>
       <c r="J149" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B150" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G150">
         <v>42</v>
       </c>
       <c r="J150" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="B151" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G151">
         <v>42</v>
       </c>
       <c r="J151" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="B152" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G152">
         <v>42</v>
       </c>
       <c r="J152" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="B153" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G153">
         <v>42</v>
@@ -5730,1087 +5761,1087 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="B154" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>42</v>
       </c>
       <c r="J154" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="B155" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>42</v>
       </c>
       <c r="J155" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="B156" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G156">
         <v>42</v>
       </c>
       <c r="J156" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>492</v>
+        <v>323</v>
       </c>
       <c r="B157" t="s">
-        <v>492</v>
+        <v>323</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G157">
         <v>42</v>
       </c>
       <c r="J157" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="B158" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G158">
         <v>42</v>
       </c>
       <c r="J158" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="B159" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G159">
         <v>42</v>
       </c>
       <c r="J159" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>495</v>
+        <v>679</v>
       </c>
       <c r="B160" t="s">
-        <v>495</v>
+        <v>679</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>42</v>
       </c>
       <c r="J160" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="B161" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>42</v>
       </c>
       <c r="J161" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="B162" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>42</v>
       </c>
       <c r="J162" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="B163" t="s">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>42</v>
       </c>
       <c r="J163" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="B164" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G164">
         <v>42</v>
       </c>
       <c r="J164" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="B165" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G165">
         <v>42</v>
       </c>
       <c r="J165" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="B166" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G166">
         <v>42</v>
       </c>
       <c r="J166" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="B167" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>42</v>
       </c>
       <c r="J167" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="B168" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>42</v>
       </c>
       <c r="J168" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="B169" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G169">
         <v>42</v>
       </c>
       <c r="J169" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="B170" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G170">
         <v>42</v>
       </c>
       <c r="J170" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="B171" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>42</v>
       </c>
       <c r="J171" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="B172" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G172">
         <v>42</v>
       </c>
       <c r="J172" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="B173" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G173">
         <v>42</v>
       </c>
       <c r="J173" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="B174" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G174">
         <v>42</v>
       </c>
       <c r="J174" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="B175" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G175">
         <v>42</v>
       </c>
       <c r="J175" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="B176" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G176">
         <v>42</v>
       </c>
       <c r="J176" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="B177" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G177">
         <v>42</v>
       </c>
       <c r="J177" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="B178" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G178">
         <v>42</v>
       </c>
       <c r="J178" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="B179" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G179">
         <v>42</v>
       </c>
       <c r="J179" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="B180" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G180">
         <v>42</v>
       </c>
       <c r="J180" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="B181" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G181">
         <v>42</v>
       </c>
       <c r="J181" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="B182" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G182">
         <v>42</v>
       </c>
       <c r="J182" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>518</v>
+        <v>680</v>
       </c>
       <c r="B183" t="s">
-        <v>518</v>
+        <v>680</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G183">
         <v>42</v>
       </c>
       <c r="J183" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>519</v>
+        <v>684</v>
       </c>
       <c r="B184" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G184">
         <v>42</v>
       </c>
       <c r="J184" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="B185" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G185">
         <v>42</v>
       </c>
       <c r="J185" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B186" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G186">
         <v>42</v>
       </c>
       <c r="J186" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="B187" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G187">
         <v>42</v>
       </c>
       <c r="J187" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="B188" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G188">
         <v>42</v>
       </c>
       <c r="J188" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="B189" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G189">
         <v>42</v>
       </c>
       <c r="J189" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="B190" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G190">
         <v>42</v>
       </c>
       <c r="J190" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="B191" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>42</v>
       </c>
       <c r="J191" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="B192" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>42</v>
       </c>
       <c r="J192" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="B193" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G193">
         <v>42</v>
       </c>
       <c r="J193" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="B194" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G194">
         <v>42</v>
       </c>
       <c r="J194" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G195">
         <v>42</v>
       </c>
       <c r="J195" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="B196" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G196">
         <v>42</v>
       </c>
       <c r="J196" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="B197" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G197">
         <v>42</v>
       </c>
       <c r="J197" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B198" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G198">
         <v>42</v>
       </c>
       <c r="J198" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="B199" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>42</v>
       </c>
       <c r="J199" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="B200" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G200">
         <v>42</v>
       </c>
       <c r="J200" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>323</v>
+        <v>577</v>
       </c>
       <c r="B201" t="s">
-        <v>323</v>
+        <v>577</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G201">
         <v>42</v>
       </c>
       <c r="J201" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B202" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G202">
         <v>42</v>
       </c>
       <c r="J202" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B203" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G203">
         <v>42</v>
       </c>
       <c r="J203" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="B204" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G204">
         <v>42</v>
       </c>
       <c r="J204" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="B205" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G205">
         <v>42</v>
@@ -6822,178 +6853,178 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="B206" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G206">
         <v>42</v>
       </c>
       <c r="J206" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="B207" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G207">
         <v>42</v>
       </c>
       <c r="J207" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="B208" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G208">
         <v>42</v>
       </c>
       <c r="J208" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="B209" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G209">
         <v>42</v>
       </c>
       <c r="J209" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="B210" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G210">
         <v>42</v>
       </c>
       <c r="J210" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="B211" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G211">
         <v>42</v>
       </c>
       <c r="J211" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>545</v>
+        <v>681</v>
       </c>
       <c r="B212" t="s">
-        <v>545</v>
+        <v>681</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G212">
         <v>42</v>
       </c>
       <c r="J212" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="B213" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G213">
         <v>42</v>
       </c>
       <c r="J213" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="B214" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -7006,162 +7037,162 @@
       </c>
       <c r="J214" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="B215" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G215">
         <v>42</v>
       </c>
       <c r="J215" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="B216" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G216">
         <v>42</v>
       </c>
       <c r="J216" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="B217" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>42</v>
       </c>
       <c r="J217" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="B218" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G218">
         <v>42</v>
       </c>
       <c r="J218" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="B219" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G219">
         <v>42</v>
       </c>
       <c r="J219" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="B220" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G220">
         <v>42</v>
       </c>
       <c r="J220" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="B221" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G221">
         <v>42</v>
       </c>
       <c r="J221" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="B222" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -7174,1029 +7205,1029 @@
       </c>
       <c r="J222" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="B223" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G223">
         <v>42</v>
       </c>
       <c r="J223" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="B224" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G224">
         <v>42</v>
       </c>
       <c r="J224" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="B225" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G225">
         <v>42</v>
       </c>
       <c r="J225" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>559</v>
+        <v>685</v>
       </c>
       <c r="B226" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G226">
         <v>42</v>
       </c>
       <c r="J226" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>680</v>
+        <v>602</v>
       </c>
       <c r="B227" t="s">
-        <v>680</v>
+        <v>602</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G227">
         <v>42</v>
       </c>
       <c r="J227" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>684</v>
+        <v>603</v>
       </c>
       <c r="B228" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G228">
         <v>42</v>
       </c>
       <c r="J228" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="B229" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G229">
         <v>42</v>
       </c>
       <c r="J229" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="B230" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G230">
         <v>42</v>
       </c>
       <c r="J230" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="B231" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G231">
         <v>42</v>
       </c>
       <c r="J231" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="B232" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G232">
         <v>42</v>
       </c>
       <c r="J232" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G233">
         <v>42</v>
       </c>
       <c r="J233" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G234">
         <v>42</v>
       </c>
       <c r="J234" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="B235" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G235">
         <v>42</v>
       </c>
       <c r="J235" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="B236" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G236">
         <v>42</v>
       </c>
       <c r="J236" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="B237" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G237">
         <v>42</v>
       </c>
       <c r="J237" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="B238" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G238">
         <v>42</v>
       </c>
       <c r="J238" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="B239" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G239">
         <v>42</v>
       </c>
       <c r="J239" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="B240" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G240">
         <v>42</v>
       </c>
       <c r="J240" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="B241" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G241">
         <v>42</v>
       </c>
       <c r="J241" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="B242" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G242">
         <v>42</v>
       </c>
       <c r="J242" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="B243" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G243">
         <v>42</v>
       </c>
       <c r="J243" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="B244" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G244">
         <v>42</v>
       </c>
       <c r="J244" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="B245" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G245">
         <v>42</v>
       </c>
       <c r="J245" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="B246" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G246">
         <v>42</v>
       </c>
       <c r="J246" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="B247" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G247">
         <v>42</v>
       </c>
       <c r="J247" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="B248" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G248">
         <v>42</v>
       </c>
       <c r="J248" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="B249" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G249">
         <v>42</v>
       </c>
       <c r="J249" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="B250" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G250">
         <v>42</v>
       </c>
       <c r="J250" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="B251" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G251">
         <v>42</v>
       </c>
       <c r="J251" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="B252" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G252">
         <v>42</v>
       </c>
       <c r="J252" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>585</v>
+        <v>686</v>
       </c>
       <c r="B253" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G253">
         <v>42</v>
       </c>
       <c r="J253" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="B254" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G254">
         <v>42</v>
       </c>
       <c r="J254" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="B255" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G255">
         <v>42</v>
       </c>
       <c r="J255" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="B256" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G256">
         <v>42</v>
       </c>
       <c r="J256" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>588</v>
+        <v>632</v>
       </c>
       <c r="B257" t="s">
-        <v>588</v>
+        <v>632</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G257">
         <v>42</v>
       </c>
       <c r="J257" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="B258" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G258">
         <v>42</v>
       </c>
       <c r="J258" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="B259" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G259">
         <v>42</v>
       </c>
       <c r="J259" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>591</v>
+        <v>635</v>
       </c>
       <c r="B260" t="s">
-        <v>591</v>
+        <v>635</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G260">
         <v>42</v>
       </c>
       <c r="J260" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="B261" t="s">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G261">
         <v>42</v>
       </c>
       <c r="J261" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="B262" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G262">
         <v>42</v>
       </c>
       <c r="J262" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
       <c r="B263" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G263">
         <v>42</v>
       </c>
       <c r="J263" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>595</v>
+        <v>639</v>
       </c>
       <c r="B264" t="s">
-        <v>595</v>
+        <v>639</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G264">
         <v>42</v>
       </c>
       <c r="J264" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="B265" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G265">
         <v>42</v>
       </c>
       <c r="J265" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="B266" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G266">
         <v>42</v>
       </c>
       <c r="J266" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>598</v>
+        <v>642</v>
       </c>
       <c r="B267" t="s">
-        <v>598</v>
+        <v>642</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G267">
         <v>42</v>
       </c>
       <c r="J267" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="B268" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G268">
         <v>42</v>
       </c>
       <c r="J268" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="B269" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G269">
         <v>42</v>
       </c>
       <c r="J269" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="B270" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G270">
         <v>42</v>
       </c>
       <c r="J270" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="B271" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G271">
         <v>42</v>
@@ -8208,325 +8239,325 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="B272" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G272">
         <v>42</v>
       </c>
       <c r="J272" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="B273" t="s">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G273">
         <v>42</v>
       </c>
       <c r="J273" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="B274" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G274">
         <v>42</v>
       </c>
       <c r="J274" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="B275" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G275">
         <v>42</v>
       </c>
       <c r="J275" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="B276" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G276">
         <v>42</v>
       </c>
       <c r="J276" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="B277" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G277">
         <v>42</v>
       </c>
       <c r="J277" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="B278" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G278">
         <v>42</v>
       </c>
       <c r="J278" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="B279" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G279">
         <v>42</v>
       </c>
       <c r="J279" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="B280" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G280">
         <v>42</v>
       </c>
       <c r="J280" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="B281" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G281">
         <v>42</v>
       </c>
       <c r="J281" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="B282" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G282">
         <v>42</v>
       </c>
       <c r="J282" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="B283" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="D283">
         <v>0</v>
       </c>
       <c r="E283" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G283">
         <v>42</v>
       </c>
       <c r="J283" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="B284" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G284">
         <v>42</v>
       </c>
       <c r="J284" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="B285" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G285">
         <v>42</v>
       </c>
       <c r="J285" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="B286" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="D286">
         <v>0</v>
       </c>
       <c r="E286" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G286">
         <v>42</v>
       </c>
       <c r="J286" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="B287" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -8539,1166 +8570,242 @@
       </c>
       <c r="J287" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B288" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="D288">
         <v>0</v>
       </c>
       <c r="E288" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G288">
         <v>42</v>
       </c>
       <c r="J288" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="B289" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G289">
         <v>42</v>
       </c>
       <c r="J289" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="B290" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G290">
         <v>42</v>
       </c>
       <c r="J290" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="B291" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G291">
         <v>42</v>
       </c>
       <c r="J291" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="B292" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G292">
         <v>42</v>
       </c>
       <c r="J292" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="B293" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G293">
         <v>42</v>
       </c>
       <c r="J293" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="B294" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G294">
         <v>42</v>
       </c>
       <c r="J294" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="B295" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G295">
         <v>42</v>
       </c>
       <c r="J295" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="B296" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G296">
         <v>42</v>
       </c>
       <c r="J296" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B297" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G297">
         <v>42</v>
       </c>
       <c r="J297" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="B298" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G298">
         <v>42</v>
       </c>
       <c r="J298" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A299" t="s">
-        <v>630</v>
-      </c>
-      <c r="B299" t="s">
-        <v>630</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299" t="s">
-        <v>45</v>
-      </c>
-      <c r="G299">
-        <v>42</v>
-      </c>
-      <c r="J299" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A300" t="s">
-        <v>631</v>
-      </c>
-      <c r="B300" t="s">
-        <v>631</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300" t="s">
-        <v>29</v>
-      </c>
-      <c r="G300">
-        <v>42</v>
-      </c>
-      <c r="J300" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
-        <v>632</v>
-      </c>
-      <c r="B301" t="s">
-        <v>632</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
-      </c>
-      <c r="E301" t="s">
-        <v>49</v>
-      </c>
-      <c r="G301">
-        <v>42</v>
-      </c>
-      <c r="J301" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
-        <v>633</v>
-      </c>
-      <c r="B302" t="s">
-        <v>633</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302" t="s">
-        <v>52</v>
-      </c>
-      <c r="G302">
-        <v>42</v>
-      </c>
-      <c r="J302" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A303" t="s">
-        <v>634</v>
-      </c>
-      <c r="B303" t="s">
-        <v>634</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303" t="s">
-        <v>37</v>
-      </c>
-      <c r="G303">
-        <v>42</v>
-      </c>
-      <c r="J303" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A304" t="s">
-        <v>635</v>
-      </c>
-      <c r="B304" t="s">
-        <v>635</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304" t="s">
-        <v>50</v>
-      </c>
-      <c r="G304">
-        <v>42</v>
-      </c>
-      <c r="J304" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A305" t="s">
-        <v>636</v>
-      </c>
-      <c r="B305" t="s">
-        <v>636</v>
-      </c>
-      <c r="D305">
-        <v>0</v>
-      </c>
-      <c r="E305" t="s">
-        <v>28</v>
-      </c>
-      <c r="G305">
-        <v>42</v>
-      </c>
-      <c r="J305" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A306" t="s">
-        <v>637</v>
-      </c>
-      <c r="B306" t="s">
-        <v>637</v>
-      </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-      <c r="E306" t="s">
-        <v>29</v>
-      </c>
-      <c r="G306">
-        <v>42</v>
-      </c>
-      <c r="J306" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A307" t="s">
-        <v>638</v>
-      </c>
-      <c r="B307" t="s">
-        <v>638</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-      <c r="E307" t="s">
-        <v>7</v>
-      </c>
-      <c r="G307">
-        <v>42</v>
-      </c>
-      <c r="J307" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A308" t="s">
-        <v>639</v>
-      </c>
-      <c r="B308" t="s">
-        <v>639</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308" t="s">
-        <v>32</v>
-      </c>
-      <c r="G308">
-        <v>42</v>
-      </c>
-      <c r="J308" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A309" t="s">
-        <v>640</v>
-      </c>
-      <c r="B309" t="s">
-        <v>640</v>
-      </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
-      <c r="E309" t="s">
-        <v>53</v>
-      </c>
-      <c r="G309">
-        <v>42</v>
-      </c>
-      <c r="J309" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A310" t="s">
-        <v>641</v>
-      </c>
-      <c r="B310" t="s">
-        <v>641</v>
-      </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-      <c r="E310" t="s">
-        <v>14</v>
-      </c>
-      <c r="G310">
-        <v>42</v>
-      </c>
-      <c r="J310" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A311" t="s">
-        <v>642</v>
-      </c>
-      <c r="B311" t="s">
-        <v>642</v>
-      </c>
-      <c r="D311">
-        <v>1</v>
-      </c>
-      <c r="E311" t="s">
-        <v>16</v>
-      </c>
-      <c r="G311">
-        <v>42</v>
-      </c>
-      <c r="J311" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A312" t="s">
-        <v>643</v>
-      </c>
-      <c r="B312" t="s">
-        <v>643</v>
-      </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-      <c r="E312" t="s">
-        <v>32</v>
-      </c>
-      <c r="G312">
-        <v>42</v>
-      </c>
-      <c r="J312" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A313" t="s">
-        <v>644</v>
-      </c>
-      <c r="B313" t="s">
-        <v>644</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-      <c r="E313" t="s">
-        <v>16</v>
-      </c>
-      <c r="G313">
-        <v>42</v>
-      </c>
-      <c r="J313" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A314" t="s">
-        <v>645</v>
-      </c>
-      <c r="B314" t="s">
-        <v>645</v>
-      </c>
-      <c r="D314">
-        <v>0</v>
-      </c>
-      <c r="E314" t="s">
-        <v>16</v>
-      </c>
-      <c r="G314">
-        <v>42</v>
-      </c>
-      <c r="J314" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A315" t="s">
-        <v>646</v>
-      </c>
-      <c r="B315" t="s">
-        <v>646</v>
-      </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-      <c r="E315" t="s">
-        <v>39</v>
-      </c>
-      <c r="G315">
-        <v>42</v>
-      </c>
-      <c r="J315" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A316" t="s">
-        <v>645</v>
-      </c>
-      <c r="B316" t="s">
-        <v>645</v>
-      </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-      <c r="E316" t="s">
-        <v>51</v>
-      </c>
-      <c r="G316">
-        <v>42</v>
-      </c>
-      <c r="J316" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A317" t="s">
-        <v>647</v>
-      </c>
-      <c r="B317" t="s">
-        <v>647</v>
-      </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
-      <c r="E317" t="s">
-        <v>17</v>
-      </c>
-      <c r="G317">
-        <v>42</v>
-      </c>
-      <c r="J317" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A318" t="s">
-        <v>648</v>
-      </c>
-      <c r="B318" t="s">
-        <v>648</v>
-      </c>
-      <c r="D318">
-        <v>0</v>
-      </c>
-      <c r="E318" t="s">
-        <v>11</v>
-      </c>
-      <c r="G318">
-        <v>42</v>
-      </c>
-      <c r="J318" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A319" t="s">
-        <v>649</v>
-      </c>
-      <c r="B319" t="s">
-        <v>649</v>
-      </c>
-      <c r="D319">
-        <v>0</v>
-      </c>
-      <c r="E319" t="s">
-        <v>14</v>
-      </c>
-      <c r="G319">
-        <v>42</v>
-      </c>
-      <c r="J319" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A320" t="s">
-        <v>682</v>
-      </c>
-      <c r="B320" t="s">
-        <v>682</v>
-      </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
-      <c r="E320" t="s">
-        <v>51</v>
-      </c>
-      <c r="G320">
-        <v>42</v>
-      </c>
-      <c r="J320" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A321" t="s">
-        <v>650</v>
-      </c>
-      <c r="B321" t="s">
-        <v>650</v>
-      </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
-      <c r="E321" t="s">
-        <v>14</v>
-      </c>
-      <c r="G321">
-        <v>42</v>
-      </c>
-      <c r="J321" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A322" t="s">
-        <v>651</v>
-      </c>
-      <c r="B322" t="s">
-        <v>651</v>
-      </c>
-      <c r="D322">
-        <v>0</v>
-      </c>
-      <c r="E322" t="s">
-        <v>47</v>
-      </c>
-      <c r="G322">
-        <v>42</v>
-      </c>
-      <c r="J322" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A323" t="s">
-        <v>652</v>
-      </c>
-      <c r="B323" t="s">
-        <v>652</v>
-      </c>
-      <c r="D323">
-        <v>0</v>
-      </c>
-      <c r="E323" t="s">
-        <v>14</v>
-      </c>
-      <c r="G323">
-        <v>42</v>
-      </c>
-      <c r="J323" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A324" t="s">
-        <v>653</v>
-      </c>
-      <c r="B324" t="s">
-        <v>653</v>
-      </c>
-      <c r="D324">
-        <v>1</v>
-      </c>
-      <c r="E324" t="s">
-        <v>23</v>
-      </c>
-      <c r="G324">
-        <v>42</v>
-      </c>
-      <c r="J324" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A325" t="s">
-        <v>654</v>
-      </c>
-      <c r="B325" t="s">
-        <v>654</v>
-      </c>
-      <c r="D325">
-        <v>0</v>
-      </c>
-      <c r="E325" t="s">
-        <v>26</v>
-      </c>
-      <c r="G325">
-        <v>42</v>
-      </c>
-      <c r="J325" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A326" t="s">
-        <v>655</v>
-      </c>
-      <c r="B326" t="s">
-        <v>655</v>
-      </c>
-      <c r="D326">
-        <v>0</v>
-      </c>
-      <c r="E326" t="s">
-        <v>24</v>
-      </c>
-      <c r="G326">
-        <v>42</v>
-      </c>
-      <c r="J326" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A327" t="s">
-        <v>656</v>
-      </c>
-      <c r="B327" t="s">
-        <v>656</v>
-      </c>
-      <c r="D327">
-        <v>0</v>
-      </c>
-      <c r="E327" t="s">
-        <v>20</v>
-      </c>
-      <c r="G327">
-        <v>42</v>
-      </c>
-      <c r="J327" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A328" t="s">
-        <v>657</v>
-      </c>
-      <c r="B328" t="s">
-        <v>657</v>
-      </c>
-      <c r="D328">
-        <v>0</v>
-      </c>
-      <c r="E328" t="s">
-        <v>20</v>
-      </c>
-      <c r="G328">
-        <v>42</v>
-      </c>
-      <c r="J328" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A329" t="s">
-        <v>658</v>
-      </c>
-      <c r="B329" t="s">
-        <v>658</v>
-      </c>
-      <c r="D329">
-        <v>0</v>
-      </c>
-      <c r="E329" t="s">
-        <v>54</v>
-      </c>
-      <c r="G329">
-        <v>42</v>
-      </c>
-      <c r="J329" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A330" t="s">
-        <v>659</v>
-      </c>
-      <c r="B330" t="s">
-        <v>659</v>
-      </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-      <c r="E330" t="s">
-        <v>22</v>
-      </c>
-      <c r="G330">
-        <v>42</v>
-      </c>
-      <c r="J330" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A331" t="s">
-        <v>660</v>
-      </c>
-      <c r="B331" t="s">
-        <v>660</v>
-      </c>
-      <c r="D331">
-        <v>0</v>
-      </c>
-      <c r="E331" t="s">
-        <v>16</v>
-      </c>
-      <c r="G331">
-        <v>42</v>
-      </c>
-      <c r="J331" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A332" t="s">
-        <v>661</v>
-      </c>
-      <c r="B332" t="s">
-        <v>661</v>
-      </c>
-      <c r="D332">
-        <v>0</v>
-      </c>
-      <c r="E332" t="s">
-        <v>26</v>
-      </c>
-      <c r="G332">
-        <v>42</v>
-      </c>
-      <c r="J332" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A333" t="s">
-        <v>662</v>
-      </c>
-      <c r="B333" t="s">
-        <v>662</v>
-      </c>
-      <c r="D333">
-        <v>0</v>
-      </c>
-      <c r="E333" t="s">
-        <v>12</v>
-      </c>
-      <c r="G333">
-        <v>42</v>
-      </c>
-      <c r="J333" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A334" t="s">
-        <v>663</v>
-      </c>
-      <c r="B334" t="s">
-        <v>663</v>
-      </c>
-      <c r="D334">
-        <v>0</v>
-      </c>
-      <c r="E334" t="s">
-        <v>54</v>
-      </c>
-      <c r="G334">
-        <v>42</v>
-      </c>
-      <c r="J334" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A335" t="s">
-        <v>664</v>
-      </c>
-      <c r="B335" t="s">
-        <v>664</v>
-      </c>
-      <c r="D335">
-        <v>0</v>
-      </c>
-      <c r="E335" t="s">
-        <v>19</v>
-      </c>
-      <c r="G335">
-        <v>42</v>
-      </c>
-      <c r="J335" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A336" t="s">
-        <v>665</v>
-      </c>
-      <c r="B336" t="s">
-        <v>665</v>
-      </c>
-      <c r="D336">
-        <v>0</v>
-      </c>
-      <c r="E336" t="s">
-        <v>36</v>
-      </c>
-      <c r="G336">
-        <v>42</v>
-      </c>
-      <c r="J336" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A337" t="s">
-        <v>666</v>
-      </c>
-      <c r="B337" t="s">
-        <v>666</v>
-      </c>
-      <c r="D337">
-        <v>0</v>
-      </c>
-      <c r="E337" t="s">
-        <v>48</v>
-      </c>
-      <c r="G337">
-        <v>42</v>
-      </c>
-      <c r="J337" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A338" t="s">
-        <v>667</v>
-      </c>
-      <c r="B338" t="s">
-        <v>667</v>
-      </c>
-      <c r="D338">
-        <v>0</v>
-      </c>
-      <c r="E338" t="s">
-        <v>48</v>
-      </c>
-      <c r="G338">
-        <v>42</v>
-      </c>
-      <c r="J338" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A339" t="s">
-        <v>668</v>
-      </c>
-      <c r="B339" t="s">
-        <v>668</v>
-      </c>
-      <c r="D339">
-        <v>0</v>
-      </c>
-      <c r="E339" t="s">
-        <v>52</v>
-      </c>
-      <c r="G339">
-        <v>42</v>
-      </c>
-      <c r="J339" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A340" t="s">
-        <v>669</v>
-      </c>
-      <c r="B340" t="s">
-        <v>669</v>
-      </c>
-      <c r="D340">
-        <v>0</v>
-      </c>
-      <c r="E340" t="s">
-        <v>47</v>
-      </c>
-      <c r="G340">
-        <v>42</v>
-      </c>
-      <c r="J340" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A341" t="s">
-        <v>670</v>
-      </c>
-      <c r="B341" t="s">
-        <v>670</v>
-      </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-      <c r="E341" t="s">
-        <v>16</v>
-      </c>
-      <c r="G341">
-        <v>42</v>
-      </c>
-      <c r="J341" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A342" t="s">
-        <v>671</v>
-      </c>
-      <c r="B342" t="s">
-        <v>671</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342" t="s">
-        <v>19</v>
-      </c>
-      <c r="G342">
-        <v>42</v>
-      </c>
-      <c r="J342" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J342"/>
+  <autoFilter ref="A1:J298" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9706,7 +8813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -9971,7 +9078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9984,7 +9091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C253"/>
   <sheetViews>
     <sheetView topLeftCell="A230" workbookViewId="0">
@@ -11371,14 +10478,14 @@
       <c r="B253" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C24"/>
+  <autoFilter ref="A1:C24" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/crawler/contentxls/content.xlsx
+++ b/crawler/contentxls/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\minibondforstaging\crawler\contentxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA744C68-0ECC-4330-BC1E-288EF1910553}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B5982F4-AD98-4A5E-9659-0F5CB4EE39EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet6" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="686">
   <si>
     <t>title</t>
   </si>
@@ -2119,10 +2119,6 @@
   </si>
   <si>
     <t xml:space="preserve">可以把员工也加起 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证监会举报活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2528,7 +2524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J298"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -2569,142 +2565,142 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>429</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>42</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>42</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>42</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>672</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>672</v>
+        <v>432</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>42</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>42</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>316</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>42</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>42</v>
@@ -2716,451 +2712,451 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>42</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>674</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>674</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>42</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>42</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>42</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>42</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>675</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>675</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>42</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>42</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>42</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>42</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>42</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>42</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>42</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>42</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>42</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G26">
         <v>42</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B27" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <v>42</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="B28" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>42</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="B29" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G29">
         <v>42</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="B30" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3173,330 +3169,330 @@
       </c>
       <c r="J30" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>673</v>
+        <v>449</v>
       </c>
       <c r="B31" t="s">
-        <v>673</v>
+        <v>449</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>42</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>676</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>676</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>42</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>42</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>42</v>
       </c>
       <c r="J34" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>42</v>
       </c>
       <c r="J35" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>42</v>
       </c>
       <c r="J36" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="B37" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>42</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>42</v>
       </c>
       <c r="J38" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B39" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>42</v>
       </c>
       <c r="J39" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>42</v>
       </c>
       <c r="J40" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B41" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G41">
         <v>42</v>
       </c>
       <c r="J41" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>42</v>
       </c>
       <c r="J42" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="J43" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G44">
         <v>42</v>
       </c>
       <c r="J44" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>462</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>462</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>42</v>
       </c>
       <c r="J45" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>674</v>
+        <v>463</v>
       </c>
       <c r="B46" t="s">
-        <v>674</v>
+        <v>463</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3509,189 +3505,189 @@
       </c>
       <c r="J46" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="B47" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>42</v>
       </c>
       <c r="J47" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>465</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>465</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>42</v>
       </c>
       <c r="J48" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G49">
         <v>42</v>
       </c>
       <c r="J49" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>675</v>
+        <v>467</v>
       </c>
       <c r="B50" t="s">
-        <v>675</v>
+        <v>467</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G50">
         <v>42</v>
       </c>
       <c r="J50" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="B51" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>42</v>
       </c>
       <c r="J51" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>42</v>
       </c>
       <c r="J52" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G53">
         <v>42</v>
       </c>
       <c r="J53" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>436</v>
+        <v>677</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>677</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>42</v>
       </c>
       <c r="J54" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>42</v>
@@ -3703,661 +3699,661 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G56">
         <v>42</v>
       </c>
       <c r="J56" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>42</v>
       </c>
       <c r="J57" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>42</v>
       </c>
       <c r="J58" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>441</v>
+        <v>678</v>
       </c>
       <c r="B59" t="s">
-        <v>441</v>
+        <v>678</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G59">
         <v>42</v>
       </c>
       <c r="J59" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G60">
         <v>42</v>
       </c>
       <c r="J60" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G61">
         <v>42</v>
       </c>
       <c r="J61" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G62">
         <v>42</v>
       </c>
       <c r="J62" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="B63" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>42</v>
       </c>
       <c r="J63" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>42</v>
       </c>
       <c r="J64" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="B65" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>42</v>
       </c>
       <c r="J65" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G66">
         <v>42</v>
       </c>
       <c r="J66" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <v>42</v>
       </c>
       <c r="J67" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>676</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s">
-        <v>676</v>
+        <v>483</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>42</v>
       </c>
       <c r="J68" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>42</v>
       </c>
       <c r="J69" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>42</v>
       </c>
       <c r="J70" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G71">
         <v>42</v>
       </c>
       <c r="J71" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G72">
         <v>42</v>
       </c>
       <c r="J72" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="B73" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G73">
         <v>42</v>
       </c>
       <c r="J73" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="B74" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G74">
         <v>42</v>
       </c>
       <c r="J74" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G75">
         <v>42</v>
       </c>
       <c r="J75" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G76">
         <v>42</v>
       </c>
       <c r="J76" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G77">
         <v>42</v>
       </c>
       <c r="J77" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>42</v>
       </c>
       <c r="J78" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G79">
         <v>42</v>
       </c>
       <c r="J79" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>42</v>
       </c>
       <c r="J80" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="B81" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G81">
         <v>42</v>
       </c>
       <c r="J81" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B82" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>42</v>
       </c>
       <c r="J82" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G83">
         <v>42</v>
       </c>
       <c r="J83" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>42</v>
       </c>
       <c r="J84" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G85">
         <v>42</v>
       </c>
       <c r="J85" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="B86" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G86">
         <v>42</v>
       </c>
       <c r="J86" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4370,819 +4366,819 @@
       </c>
       <c r="J87" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G88">
         <v>42</v>
       </c>
       <c r="J88" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="B89" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G89">
         <v>42</v>
       </c>
       <c r="J89" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>677</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s">
-        <v>677</v>
+        <v>505</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>42</v>
       </c>
       <c r="J90" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="B91" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G91">
         <v>42</v>
       </c>
       <c r="J91" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G92">
         <v>42</v>
       </c>
       <c r="J92" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G93">
         <v>42</v>
       </c>
       <c r="J93" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>42</v>
       </c>
       <c r="J94" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>678</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s">
-        <v>678</v>
+        <v>510</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>42</v>
       </c>
       <c r="J95" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="B96" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G96">
         <v>42</v>
       </c>
       <c r="J96" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B97" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G97">
         <v>42</v>
       </c>
       <c r="J97" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G98">
         <v>42</v>
       </c>
       <c r="J98" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="B99" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G99">
         <v>42</v>
       </c>
       <c r="J99" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G100">
         <v>42</v>
       </c>
       <c r="J100" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B101" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G101">
         <v>42</v>
       </c>
       <c r="J101" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="B102" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G102">
         <v>42</v>
       </c>
       <c r="J102" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="B103" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G103">
         <v>42</v>
       </c>
       <c r="J103" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="B104" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <v>42</v>
       </c>
       <c r="J104" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="B105" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>42</v>
       </c>
       <c r="J105" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G106">
         <v>42</v>
       </c>
       <c r="J106" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="B107" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G107">
         <v>42</v>
       </c>
       <c r="J107" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="B108" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G108">
         <v>42</v>
       </c>
       <c r="J108" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>醉倾于下ajs</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B109" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>42</v>
       </c>
       <c r="J109" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="B110" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>42</v>
       </c>
       <c r="J110" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B111" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G111">
         <v>42</v>
       </c>
       <c r="J111" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="B112" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G112">
         <v>42</v>
       </c>
       <c r="J112" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="B113" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G113">
         <v>42</v>
       </c>
       <c r="J113" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="B114" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G114">
         <v>42</v>
       </c>
       <c r="J114" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="B115" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G115">
         <v>42</v>
       </c>
       <c r="J115" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B116" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G116">
         <v>42</v>
       </c>
       <c r="J116" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="B117" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G117">
         <v>42</v>
       </c>
       <c r="J117" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="B118" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>42</v>
       </c>
       <c r="J118" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="B119" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G119">
         <v>42</v>
       </c>
       <c r="J119" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="B120" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G120">
         <v>42</v>
       </c>
       <c r="J120" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G121">
         <v>42</v>
       </c>
       <c r="J121" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="B122" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>42</v>
       </c>
       <c r="J122" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="B123" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G123">
         <v>42</v>
       </c>
       <c r="J123" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>503</v>
+        <v>679</v>
       </c>
       <c r="B124" t="s">
-        <v>503</v>
+        <v>679</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G124">
         <v>42</v>
       </c>
       <c r="J124" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="B125" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>42</v>
       </c>
       <c r="J125" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B126" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>42</v>
@@ -5194,31 +5190,31 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B127" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>42</v>
       </c>
       <c r="J127" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="B128" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5231,99 +5227,99 @@
       </c>
       <c r="J128" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="B129" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G129">
         <v>42</v>
       </c>
       <c r="J129" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="B130" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G130">
         <v>42</v>
       </c>
       <c r="J130" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="B131" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>42</v>
       </c>
       <c r="J131" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="B132" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G132">
         <v>42</v>
       </c>
       <c r="J132" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="B133" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -5336,1638 +5332,1638 @@
       </c>
       <c r="J133" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="B134" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G134">
         <v>42</v>
       </c>
       <c r="J134" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="B135" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>42</v>
       </c>
       <c r="J135" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="B136" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G136">
         <v>42</v>
       </c>
       <c r="J136" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="B137" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G137">
         <v>42</v>
       </c>
       <c r="J137" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="B138" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G138">
         <v>42</v>
       </c>
       <c r="J138" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="B139" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G139">
         <v>42</v>
       </c>
       <c r="J139" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="B140" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G140">
         <v>42</v>
       </c>
       <c r="J140" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="B141" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G141">
         <v>42</v>
       </c>
       <c r="J141" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="B142" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>42</v>
       </c>
       <c r="J142" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="B143" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G143">
         <v>42</v>
       </c>
       <c r="J143" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="B144" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>42</v>
       </c>
       <c r="J144" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="B145" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G145">
         <v>42</v>
       </c>
       <c r="J145" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="B146" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G146">
         <v>42</v>
       </c>
       <c r="J146" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>526</v>
+        <v>680</v>
       </c>
       <c r="B147" t="s">
-        <v>526</v>
+        <v>680</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G147">
         <v>42</v>
       </c>
       <c r="J147" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>527</v>
+        <v>683</v>
       </c>
       <c r="B148" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G148">
         <v>42</v>
       </c>
       <c r="J148" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="B149" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>42</v>
       </c>
       <c r="J149" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="B150" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G150">
         <v>42</v>
       </c>
       <c r="J150" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B151" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G151">
         <v>42</v>
       </c>
       <c r="J151" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="B152" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G152">
         <v>42</v>
       </c>
       <c r="J152" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="B153" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G153">
         <v>42</v>
       </c>
       <c r="J153" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="B154" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>42</v>
       </c>
       <c r="J154" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="B155" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>42</v>
       </c>
       <c r="J155" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="B156" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>42</v>
       </c>
       <c r="J156" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>323</v>
+        <v>569</v>
       </c>
       <c r="B157" t="s">
-        <v>323</v>
+        <v>569</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G157">
         <v>42</v>
       </c>
       <c r="J157" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="B158" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G158">
         <v>42</v>
       </c>
       <c r="J158" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="B159" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G159">
         <v>42</v>
       </c>
       <c r="J159" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>679</v>
+        <v>572</v>
       </c>
       <c r="B160" t="s">
-        <v>679</v>
+        <v>572</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G160">
         <v>42</v>
       </c>
       <c r="J160" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B161" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G161">
         <v>42</v>
       </c>
       <c r="J161" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B162" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G162">
         <v>42</v>
       </c>
       <c r="J162" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>42</v>
       </c>
       <c r="J163" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="B164" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>42</v>
       </c>
       <c r="J164" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B165" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G165">
         <v>42</v>
       </c>
       <c r="J165" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="B166" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G166">
         <v>42</v>
       </c>
       <c r="J166" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="B167" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G167">
         <v>42</v>
       </c>
       <c r="J167" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="B168" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G168">
         <v>42</v>
       </c>
       <c r="J168" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="B169" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G169">
         <v>42</v>
       </c>
       <c r="J169" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="B170" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G170">
         <v>42</v>
       </c>
       <c r="J170" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B171" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G171">
         <v>42</v>
       </c>
       <c r="J171" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="B172" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>42</v>
       </c>
       <c r="J172" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B173" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G173">
         <v>42</v>
       </c>
       <c r="J173" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="B174" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G174">
         <v>42</v>
       </c>
       <c r="J174" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="B175" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>42</v>
       </c>
       <c r="J175" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>553</v>
+        <v>681</v>
       </c>
       <c r="B176" t="s">
-        <v>553</v>
+        <v>681</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G176">
         <v>42</v>
       </c>
       <c r="J176" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="B177" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>42</v>
       </c>
       <c r="J177" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="B178" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G178">
         <v>42</v>
       </c>
       <c r="J178" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="B179" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G179">
         <v>42</v>
       </c>
       <c r="J179" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="B180" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G180">
         <v>42</v>
       </c>
       <c r="J180" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="B181" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>42</v>
       </c>
       <c r="J181" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="B182" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G182">
         <v>42</v>
       </c>
       <c r="J182" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>晨榆</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>680</v>
+        <v>594</v>
       </c>
       <c r="B183" t="s">
-        <v>680</v>
+        <v>594</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G183">
         <v>42</v>
       </c>
       <c r="J183" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>684</v>
+        <v>595</v>
       </c>
       <c r="B184" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G184">
         <v>42</v>
       </c>
       <c r="J184" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="B185" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G185">
         <v>42</v>
       </c>
       <c r="J185" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="B186" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G186">
         <v>42</v>
       </c>
       <c r="J186" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="B187" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G187">
         <v>42</v>
       </c>
       <c r="J187" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="B188" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G188">
         <v>42</v>
       </c>
       <c r="J188" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="B189" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G189">
         <v>42</v>
       </c>
       <c r="J189" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>566</v>
+        <v>684</v>
       </c>
       <c r="B190" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G190">
         <v>42</v>
       </c>
       <c r="J190" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="B191" t="s">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>42</v>
       </c>
       <c r="J191" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="B192" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>42</v>
       </c>
       <c r="J192" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="B193" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>42</v>
       </c>
       <c r="J193" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="B194" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G194">
         <v>42</v>
       </c>
       <c r="J194" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>伽溢</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="B195" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G195">
         <v>42</v>
       </c>
       <c r="J195" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="B196" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>42</v>
       </c>
       <c r="J196" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="B197" t="s">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G197">
         <v>42</v>
       </c>
       <c r="J197" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="B198" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G198">
         <v>42</v>
       </c>
       <c r="J198" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="B199" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G199">
         <v>42</v>
       </c>
       <c r="J199" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B200" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G200">
         <v>42</v>
       </c>
       <c r="J200" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="B201" t="s">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G201">
         <v>42</v>
       </c>
       <c r="J201" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="B202" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>42</v>
       </c>
       <c r="J202" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="B203" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G203">
         <v>42</v>
       </c>
       <c r="J203" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="B204" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G204">
         <v>42</v>
       </c>
       <c r="J204" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="B205" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G205">
         <v>42</v>
       </c>
       <c r="J205" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
       <c r="B206" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G206">
         <v>42</v>
       </c>
       <c r="J206" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="B207" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G207">
         <v>42</v>
       </c>
       <c r="J207" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="B208" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G208">
         <v>42</v>
       </c>
       <c r="J208" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="B209" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G209">
         <v>42</v>
       </c>
       <c r="J209" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="B210" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G210">
         <v>42</v>
       </c>
       <c r="J210" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="B211" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="D211">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G211">
         <v>42</v>
@@ -6979,142 +6975,142 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>681</v>
+        <v>623</v>
       </c>
       <c r="B212" t="s">
-        <v>681</v>
+        <v>623</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>42</v>
       </c>
       <c r="J212" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="B213" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G213">
         <v>42</v>
       </c>
       <c r="J213" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="B214" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G214">
         <v>42</v>
       </c>
       <c r="J214" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="B215" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G215">
         <v>42</v>
       </c>
       <c r="J215" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="B216" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G216">
         <v>42</v>
       </c>
       <c r="J216" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="B217" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G217">
         <v>42</v>
       </c>
       <c r="J217" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="B218" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>42</v>
@@ -7126,1686 +7122,930 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="B219" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G219">
         <v>42</v>
       </c>
       <c r="J219" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="B220" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G220">
         <v>42</v>
       </c>
       <c r="J220" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="B221" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G221">
         <v>42</v>
       </c>
       <c r="J221" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="B222" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G222">
         <v>42</v>
       </c>
       <c r="J222" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="B223" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>42</v>
       </c>
       <c r="J223" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="B224" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G224">
         <v>42</v>
       </c>
       <c r="J224" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="B225" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G225">
         <v>42</v>
       </c>
       <c r="J225" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>685</v>
+        <v>637</v>
       </c>
       <c r="B226" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>42</v>
       </c>
       <c r="J226" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="B227" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G227">
         <v>42</v>
       </c>
       <c r="J227" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="B228" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G228">
         <v>42</v>
       </c>
       <c r="J228" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="B229" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G229">
         <v>42</v>
       </c>
       <c r="J229" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="B230" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G230">
         <v>42</v>
       </c>
       <c r="J230" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="B231" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G231">
         <v>42</v>
       </c>
       <c r="J231" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="B232" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G232">
         <v>42</v>
       </c>
       <c r="J232" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="B233" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G233">
         <v>42</v>
       </c>
       <c r="J233" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="B234" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G234">
         <v>42</v>
       </c>
       <c r="J234" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="B235" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G235">
         <v>42</v>
       </c>
       <c r="J235" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="B236" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G236">
         <v>42</v>
       </c>
       <c r="J236" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="B237" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G237">
         <v>42</v>
       </c>
       <c r="J237" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="B238" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G238">
         <v>42</v>
       </c>
       <c r="J238" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B239" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G239">
         <v>42</v>
       </c>
       <c r="J239" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="B240" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G240">
         <v>42</v>
       </c>
       <c r="J240" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="B241" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G241">
         <v>42</v>
       </c>
       <c r="J241" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="B242" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G242">
         <v>42</v>
       </c>
       <c r="J242" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="B243" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G243">
         <v>42</v>
       </c>
       <c r="J243" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="B244" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G244">
         <v>42</v>
       </c>
       <c r="J244" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="B245" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G245">
         <v>42</v>
       </c>
       <c r="J245" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="B246" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G246">
         <v>42</v>
       </c>
       <c r="J246" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="B247" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G247">
         <v>42</v>
       </c>
       <c r="J247" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="B248" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G248">
         <v>42</v>
       </c>
       <c r="J248" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="B249" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G249">
         <v>42</v>
       </c>
       <c r="J249" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="B250" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G250">
         <v>42</v>
       </c>
       <c r="J250" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="B251" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G251">
         <v>42</v>
       </c>
       <c r="J251" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="B252" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G252">
         <v>42</v>
       </c>
       <c r="J252" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="B253" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G253">
         <v>42</v>
       </c>
       <c r="J253" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="B254" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G254">
         <v>42</v>
       </c>
       <c r="J254" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="B255" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G255">
         <v>42</v>
       </c>
       <c r="J255" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="B256" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G256">
         <v>42</v>
       </c>
       <c r="J256" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="B257" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G257">
         <v>42</v>
       </c>
       <c r="J257" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="B258" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G258">
         <v>42</v>
       </c>
       <c r="J258" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="B259" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G259">
         <v>42</v>
       </c>
       <c r="J259" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="B260" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G260">
         <v>42</v>
       </c>
       <c r="J260" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="B261" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G261">
         <v>42</v>
       </c>
       <c r="J261" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="B262" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G262">
         <v>42</v>
       </c>
       <c r="J262" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
-        <v>638</v>
-      </c>
-      <c r="B263" t="s">
-        <v>638</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263" t="s">
-        <v>7</v>
-      </c>
-      <c r="G263">
-        <v>42</v>
-      </c>
-      <c r="J263" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
-        <v>639</v>
-      </c>
-      <c r="B264" t="s">
-        <v>639</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264" t="s">
-        <v>32</v>
-      </c>
-      <c r="G264">
-        <v>42</v>
-      </c>
-      <c r="J264" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
-        <v>640</v>
-      </c>
-      <c r="B265" t="s">
-        <v>640</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265" t="s">
-        <v>53</v>
-      </c>
-      <c r="G265">
-        <v>42</v>
-      </c>
-      <c r="J265" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
-        <v>641</v>
-      </c>
-      <c r="B266" t="s">
-        <v>641</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266">
-        <v>42</v>
-      </c>
-      <c r="J266" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
-        <v>642</v>
-      </c>
-      <c r="B267" t="s">
-        <v>642</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267" t="s">
-        <v>16</v>
-      </c>
-      <c r="G267">
-        <v>42</v>
-      </c>
-      <c r="J267" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
-        <v>643</v>
-      </c>
-      <c r="B268" t="s">
-        <v>643</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268" t="s">
-        <v>32</v>
-      </c>
-      <c r="G268">
-        <v>42</v>
-      </c>
-      <c r="J268" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
-        <v>644</v>
-      </c>
-      <c r="B269" t="s">
-        <v>644</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269" t="s">
-        <v>16</v>
-      </c>
-      <c r="G269">
-        <v>42</v>
-      </c>
-      <c r="J269" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
-        <v>645</v>
-      </c>
-      <c r="B270" t="s">
-        <v>645</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270" t="s">
-        <v>16</v>
-      </c>
-      <c r="G270">
-        <v>42</v>
-      </c>
-      <c r="J270" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
-        <v>646</v>
-      </c>
-      <c r="B271" t="s">
-        <v>646</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271" t="s">
-        <v>39</v>
-      </c>
-      <c r="G271">
-        <v>42</v>
-      </c>
-      <c r="J271" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
-        <v>645</v>
-      </c>
-      <c r="B272" t="s">
-        <v>645</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272" t="s">
-        <v>51</v>
-      </c>
-      <c r="G272">
-        <v>42</v>
-      </c>
-      <c r="J272" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
-        <v>647</v>
-      </c>
-      <c r="B273" t="s">
-        <v>647</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273" t="s">
-        <v>17</v>
-      </c>
-      <c r="G273">
-        <v>42</v>
-      </c>
-      <c r="J273" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
-        <v>648</v>
-      </c>
-      <c r="B274" t="s">
-        <v>648</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274" t="s">
-        <v>11</v>
-      </c>
-      <c r="G274">
-        <v>42</v>
-      </c>
-      <c r="J274" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
-        <v>649</v>
-      </c>
-      <c r="B275" t="s">
-        <v>649</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275">
-        <v>42</v>
-      </c>
-      <c r="J275" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
-        <v>682</v>
-      </c>
-      <c r="B276" t="s">
-        <v>682</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276" t="s">
-        <v>51</v>
-      </c>
-      <c r="G276">
-        <v>42</v>
-      </c>
-      <c r="J276" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
-        <v>650</v>
-      </c>
-      <c r="B277" t="s">
-        <v>650</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277">
-        <v>42</v>
-      </c>
-      <c r="J277" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
-        <v>651</v>
-      </c>
-      <c r="B278" t="s">
-        <v>651</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278" t="s">
-        <v>47</v>
-      </c>
-      <c r="G278">
-        <v>42</v>
-      </c>
-      <c r="J278" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
-        <v>652</v>
-      </c>
-      <c r="B279" t="s">
-        <v>652</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279" t="s">
-        <v>14</v>
-      </c>
-      <c r="G279">
-        <v>42</v>
-      </c>
-      <c r="J279" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
-        <v>653</v>
-      </c>
-      <c r="B280" t="s">
-        <v>653</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
-      </c>
-      <c r="E280" t="s">
-        <v>23</v>
-      </c>
-      <c r="G280">
-        <v>42</v>
-      </c>
-      <c r="J280" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
-        <v>654</v>
-      </c>
-      <c r="B281" t="s">
-        <v>654</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281" t="s">
-        <v>26</v>
-      </c>
-      <c r="G281">
-        <v>42</v>
-      </c>
-      <c r="J281" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
-        <v>655</v>
-      </c>
-      <c r="B282" t="s">
-        <v>655</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282">
-        <v>42</v>
-      </c>
-      <c r="J282" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
-        <v>656</v>
-      </c>
-      <c r="B283" t="s">
-        <v>656</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283">
-        <v>42</v>
-      </c>
-      <c r="J283" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
-        <v>657</v>
-      </c>
-      <c r="B284" t="s">
-        <v>657</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284" t="s">
-        <v>20</v>
-      </c>
-      <c r="G284">
-        <v>42</v>
-      </c>
-      <c r="J284" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
         <v>GlennSoine</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
-        <v>658</v>
-      </c>
-      <c r="B285" t="s">
-        <v>658</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285" t="s">
-        <v>54</v>
-      </c>
-      <c r="G285">
-        <v>42</v>
-      </c>
-      <c r="J285" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
-        <v>659</v>
-      </c>
-      <c r="B286" t="s">
-        <v>659</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286" t="s">
-        <v>22</v>
-      </c>
-      <c r="G286">
-        <v>42</v>
-      </c>
-      <c r="J286" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
-        <v>660</v>
-      </c>
-      <c r="B287" t="s">
-        <v>660</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287" t="s">
-        <v>16</v>
-      </c>
-      <c r="G287">
-        <v>42</v>
-      </c>
-      <c r="J287" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
-        <v>661</v>
-      </c>
-      <c r="B288" t="s">
-        <v>661</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288" t="s">
-        <v>26</v>
-      </c>
-      <c r="G288">
-        <v>42</v>
-      </c>
-      <c r="J288" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
-        <v>662</v>
-      </c>
-      <c r="B289" t="s">
-        <v>662</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289" t="s">
-        <v>12</v>
-      </c>
-      <c r="G289">
-        <v>42</v>
-      </c>
-      <c r="J289" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
-        <v>663</v>
-      </c>
-      <c r="B290" t="s">
-        <v>663</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290" t="s">
-        <v>54</v>
-      </c>
-      <c r="G290">
-        <v>42</v>
-      </c>
-      <c r="J290" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A291" t="s">
-        <v>664</v>
-      </c>
-      <c r="B291" t="s">
-        <v>664</v>
-      </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291">
-        <v>42</v>
-      </c>
-      <c r="J291" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A292" t="s">
-        <v>665</v>
-      </c>
-      <c r="B292" t="s">
-        <v>665</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292" t="s">
-        <v>36</v>
-      </c>
-      <c r="G292">
-        <v>42</v>
-      </c>
-      <c r="J292" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A293" t="s">
-        <v>666</v>
-      </c>
-      <c r="B293" t="s">
-        <v>666</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293" t="s">
-        <v>48</v>
-      </c>
-      <c r="G293">
-        <v>42</v>
-      </c>
-      <c r="J293" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
-        <v>667</v>
-      </c>
-      <c r="B294" t="s">
-        <v>667</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-      <c r="E294" t="s">
-        <v>48</v>
-      </c>
-      <c r="G294">
-        <v>42</v>
-      </c>
-      <c r="J294" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A295" t="s">
-        <v>668</v>
-      </c>
-      <c r="B295" t="s">
-        <v>668</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295" t="s">
-        <v>52</v>
-      </c>
-      <c r="G295">
-        <v>42</v>
-      </c>
-      <c r="J295" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A296" t="s">
-        <v>669</v>
-      </c>
-      <c r="B296" t="s">
-        <v>669</v>
-      </c>
-      <c r="D296">
-        <v>0</v>
-      </c>
-      <c r="E296" t="s">
-        <v>47</v>
-      </c>
-      <c r="G296">
-        <v>42</v>
-      </c>
-      <c r="J296" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A297" t="s">
-        <v>670</v>
-      </c>
-      <c r="B297" t="s">
-        <v>670</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297" t="s">
-        <v>16</v>
-      </c>
-      <c r="G297">
-        <v>42</v>
-      </c>
-      <c r="J297" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A298" t="s">
-        <v>671</v>
-      </c>
-      <c r="B298" t="s">
-        <v>671</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-      <c r="E298" t="s">
-        <v>19</v>
-      </c>
-      <c r="G298">
-        <v>42</v>
-      </c>
-      <c r="J298" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J298" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/crawler/contentxls/content.xlsx
+++ b/crawler/contentxls/content.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\minibondforstaging\crawler\contentxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spike\Django\minibondforstaging\crawler\contentxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FB56E12-040C-4764-9A2B-7F7716AA636E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="223">
   <si>
     <t>title</t>
   </si>
@@ -194,351 +193,15 @@
     <t>YY</t>
   </si>
   <si>
-    <t>看来以骆的水平最多只能做个队长，管理本地几家门店，让他当司令管理全国，那只能是找死</t>
-  </si>
-  <si>
-    <t>我感觉这两句话就是他进了局子，等著看到外面的阳光[表情][图片]</t>
-  </si>
-  <si>
-    <t>别瞎想了，累不累</t>
-  </si>
-  <si>
-    <t>应该关心骆有什么消息吧？这王八几天了还不出来语音，又可能被逮了</t>
-  </si>
-  <si>
-    <t>骆狗腿来的，懒的鸟他</t>
-  </si>
-  <si>
-    <t>我是狗腿</t>
-  </si>
-  <si>
-    <t>我承认</t>
-  </si>
-  <si>
-    <t>你只有12块代收你承认吗</t>
-  </si>
-  <si>
-    <t>洗地不专业啊！一会没代待收一会12，但勇气可以敢于承认是自己狗腿，佩服，做人之无耻，脸皮之厚，不亏骆是调教出来的</t>
-  </si>
-  <si>
-    <t>总比你12块代收不要脸强点</t>
-  </si>
-  <si>
-    <t>你妈贵姓啊</t>
-  </si>
-  <si>
-    <t>是不是姓傻</t>
-  </si>
-  <si>
-    <t>你是傻b生的？</t>
-  </si>
-  <si>
-    <t>就说你不专业嘛？还不服气，除了会说几句脏话还会干嘛？真不知道骆会出钱养你这样的</t>
-  </si>
-  <si>
-    <t>跟你比当然不行了</t>
-  </si>
-  <si>
-    <t>也不看你妈是谁</t>
-  </si>
-  <si>
-    <t>狗腿滚一边去</t>
-  </si>
-  <si>
-    <t>你这种货色都敢出门</t>
-  </si>
-  <si>
-    <t>我有啥不敢的</t>
-  </si>
-  <si>
-    <t>@ ╮自己 吵架归吵架，别骂人家家人！</t>
-  </si>
-  <si>
-    <t>素质？！…</t>
-  </si>
-  <si>
-    <t>这种代收12块的在群里起哄，还留着？</t>
-  </si>
-  <si>
-    <t>最近可能会有点压力。大家也提前心理有点准备。团队受限制出境影响比较大，管理层可能陆续都要离职。有些工作要受到无限期影响。。。</t>
-  </si>
-  <si>
-    <t>还好，还不算最坏的消息。我也在想办法，尽快调整到位。</t>
-  </si>
-  <si>
-    <t>我在阵地在。绝不放弃。</t>
-  </si>
-  <si>
-    <t>又来发佈消息了，团队受限制出境影响比较大，不知有什麽影响呢难道他们的业务做到外国吗</t>
-  </si>
-  <si>
-    <t>大家提前心理做好准备，。这句话的意思是不是暗示，后面的难以兑现啊[表情]</t>
-  </si>
-  <si>
-    <t>才兑付一期呀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">再不债转就没机会了，懂吗@tt </t>
-  </si>
-  <si>
-    <t>开始36期也是他选 的，也不由我们选</t>
-  </si>
-  <si>
-    <t>趁收债机构还没压力的时候</t>
-  </si>
-  <si>
-    <t>现在是纯文字不再语音了，究竟是她本人，还是马甲发的呢</t>
-  </si>
-  <si>
-    <t>愿意割肉早点债转下车省心。不愿意的就是一种煎熬，还得将骆驼供起来，一旦他不高兴就断了菜钱。</t>
-  </si>
-  <si>
     <t>[表情][表情]</t>
   </si>
   <si>
-    <t>熬成阿香婆了，也许就好了</t>
-  </si>
-  <si>
-    <t>woshidai雷友 关群开始扯蛋了 想听听过有没有其他消息</t>
-  </si>
-  <si>
     <t>[表情]</t>
   </si>
   <si>
-    <t>@HElloSa 又有新的消息？</t>
-  </si>
-  <si>
-    <t>狗腿差不多都退群了吧[表情]</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>还潜伏着</t>
-  </si>
-  <si>
     <t>[图片]</t>
   </si>
   <si>
-    <t>转债是不是套路，说的什么什么困难，什么什么危机，这样测试投资人的底线，慢慢承受不了就把手中债权折价就出售了。</t>
-  </si>
-  <si>
-    <t>心里明白就行，凡事不要解释得那么清楚</t>
-  </si>
-  <si>
-    <t>债转还要把之前发的利息全扣掉，太霸王条款了吧，</t>
-  </si>
-  <si>
-    <t>半年后再转债，前面的6期利息都要扣掉</t>
-  </si>
-  <si>
-    <t>就36期，赌一把</t>
-  </si>
-  <si>
-    <t>本来是流氓，还不允许人说</t>
-  </si>
-  <si>
-    <t>他太吊</t>
-  </si>
-  <si>
-    <t>说了也无用</t>
-  </si>
-  <si>
-    <t>债转扣利息确实恶心，我债转的时候把我第一次回款2.75利息扣了</t>
-  </si>
-  <si>
-    <t>债转应该是我剩余债权的折扣，算的精的很，虽然也没几个钱</t>
-  </si>
-  <si>
-    <t>你转了还在这干啥呀，要是我早退了，这里太恶心</t>
-  </si>
-  <si>
-    <t>@开心  你也债转了？</t>
-  </si>
-  <si>
-    <t>开心就好</t>
-  </si>
-  <si>
-    <t>@ HC 人渣所为，连2元提现费都不放过</t>
-  </si>
-  <si>
-    <t>雁过拔毛</t>
-  </si>
-  <si>
-    <t>我所谓</t>
-  </si>
-  <si>
-    <t>无所谓</t>
-  </si>
-  <si>
-    <t>返现我都是短期</t>
-  </si>
-  <si>
-    <t>最多的3个月</t>
-  </si>
-  <si>
-    <t>对投资人赶尽杀绝，就是让你早点转，一年后转也要把一年的利息全扣了</t>
-  </si>
-  <si>
-    <t>生死攸关的时候</t>
-  </si>
-  <si>
-    <t>谁都会只管自己死活的</t>
-  </si>
-  <si>
-    <t>真的好恶心，没见过这么小心眼的平台，我们机构就是他们一伙的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[图片]不用说的太透彻 </t>
-  </si>
-  <si>
-    <t>越来越明目张胆地侵吞投资人的，资金</t>
-  </si>
-  <si>
-    <t>债转比率又低了[表情]</t>
-  </si>
-  <si>
-    <t>你又不债转，不影响</t>
-  </si>
-  <si>
-    <t>影响的是心情</t>
-  </si>
-  <si>
-    <t>了解下群里有多少朋友中签宁德时代？</t>
-  </si>
-  <si>
-    <t>什么是宁德时代？</t>
-  </si>
-  <si>
-    <t>独角兽</t>
-  </si>
-  <si>
-    <t>中国新能源电池NO.1</t>
-  </si>
-  <si>
-    <t>现在债转变几折了？</t>
-  </si>
-  <si>
-    <t>9折</t>
-  </si>
-  <si>
-    <t>88折</t>
-  </si>
-  <si>
-    <t>61节</t>
-  </si>
-  <si>
-    <t>@开心 还有些管理员甘愿当他的走狗更恶心</t>
-  </si>
-  <si>
-    <t>是不是因为当它的走狗可以更快下车啊，</t>
-  </si>
-  <si>
-    <t>动不动禁言[表情]</t>
-  </si>
-  <si>
-    <t>到底要不要5折转掉啊，哎</t>
-  </si>
-  <si>
-    <t>爱发牢骚的在这个群，让那个群保持冷静也没错</t>
-  </si>
-  <si>
-    <t>要是过了几个月再决定5折转，比现在更划不来</t>
-  </si>
-  <si>
-    <t>是的，还没收到一分钱，自己先花了几十块，</t>
-  </si>
-  <si>
-    <t>利息扣，还要自己去打印，买印油，出快递费</t>
-  </si>
-  <si>
-    <t>让后说你拍的视频不清晰，要重来，我日了</t>
-  </si>
-  <si>
-    <t>我还要去买个iphone吗</t>
-  </si>
-  <si>
-    <t>骆前两天说的坏消息，不知道是不是烟雾弹，让投资人快点5折转给他</t>
-  </si>
-  <si>
-    <t>真真假假搞不清楚，纠结啊</t>
-  </si>
-  <si>
-    <t>线上转债迟迟不上，只让视频转</t>
-  </si>
-  <si>
-    <t>就是那个意思了，说线上转债也不开发了，只能转给机构</t>
-  </si>
-  <si>
-    <t>谁知道拿视频去做什么用</t>
-  </si>
-  <si>
-    <t>那个机构，肯定是和他一伙的，甚至就是他自己在收</t>
-  </si>
-  <si>
-    <t>不用说的太细，都看的出</t>
-  </si>
-  <si>
-    <t>一伙也好，两伙也好，跟我们没关系</t>
-  </si>
-  <si>
-    <t>认倒霉都不行，视频转债太麻烦</t>
-  </si>
-  <si>
-    <t>然后每天还屌得很，丝毫没有一点真诚</t>
-  </si>
-  <si>
-    <t>上帝欲其灭亡必先让其疯狂</t>
-  </si>
-  <si>
-    <t>假如是自己，的人收的话，以后东窗事发，绝对是一种诈骗罪</t>
-  </si>
-  <si>
-    <t>线上转债根本不需要开发，本来就有这个功能，原因就是只能它收，别人不能收</t>
-  </si>
-  <si>
-    <t>越分析越气人，算了</t>
-  </si>
-  <si>
-    <t>我感觉是这样的，就是骆现在的情况是没法在3年内兑付完全部债权的，所以现在5折收购，减轻还款压力。那如果收购得多了，3年就能保证，那我就慢慢等。那如果慢慢等3年，他收购得又少了，3年就保证不了。就是个死结，纠结啊</t>
-  </si>
-  <si>
-    <t>全是真标，三年有什么还款压力？</t>
-  </si>
-  <si>
-    <t>全是真标，那就到期就还款就行，为啥要36个月呢</t>
-  </si>
-  <si>
-    <t>明显有窟窿</t>
-  </si>
-  <si>
-    <t>问题是这个骗子不想把吃下去的吐出来</t>
-  </si>
-  <si>
-    <t>我转了，为大家出份力</t>
-  </si>
-  <si>
-    <t>如果是真标，回款就在他手里，为什么不给我们投资者？典型的无赖加骗子</t>
-  </si>
-  <si>
-    <t>人家不通过这种手段打折收付不起啊</t>
-  </si>
-  <si>
-    <t>@骁虎 比率低还他妈的那么麻烦[表情]</t>
-  </si>
-  <si>
-    <t>既要付的起又要赚大钱</t>
-  </si>
-  <si>
-    <t>麻烦不也是为了所谓合法吗</t>
-  </si>
-  <si>
-    <t>人家也不容易，骗点钱容易吗</t>
-  </si>
-  <si>
-    <t>沃就想最后撸投资人一把呗</t>
-  </si>
-  <si>
     <t>寄过去一份，说没按要求，还要重新录视频</t>
   </si>
   <si>
@@ -563,12 +226,6 @@
     <t>事情不清楚当时就应该说啊</t>
   </si>
   <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>@骁虎 转成功了？不大亏吧？</t>
-  </si>
-  <si>
     <t>不是发过去了</t>
   </si>
   <si>
@@ -578,9 +235,6 @@
     <t>我这手机都用几年没舍得换，</t>
   </si>
   <si>
-    <t>我也是</t>
-  </si>
-  <si>
     <t>舍不得用钱</t>
   </si>
   <si>
@@ -590,9 +244,6 @@
     <t>还有的魅族</t>
   </si>
   <si>
-    <t>用的</t>
-  </si>
-  <si>
     <t>省吃俭用，会亏在P2P</t>
   </si>
   <si>
@@ -1040,26 +691,14 @@
     <t>几折转的</t>
   </si>
   <si>
-    <t>吵架归吵架，别骂人家家人！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近可能会有点压力。大家也提前心理有点准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该关心骆有什么消息吧？这王八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来以骆的水平最多只能做个队长</t>
+    <t>有转成功了？不大亏吧？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1116,7 +755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1191,23 +830,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1243,23 +865,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1435,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1474,7 +1079,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -1483,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -1500,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>48</v>
@@ -1517,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>48</v>
@@ -1534,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>48</v>
@@ -1551,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -1568,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -1585,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>48</v>
@@ -1602,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <v>48</v>
@@ -1610,13 +1215,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1627,16 +1232,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -1644,16 +1249,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>48</v>
@@ -1661,16 +1266,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>48</v>
@@ -1678,16 +1283,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>48</v>
@@ -1695,16 +1300,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>48</v>
@@ -1712,16 +1317,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>48</v>
@@ -1729,16 +1334,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>48</v>
@@ -1746,16 +1351,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>48</v>
@@ -1763,16 +1368,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>48</v>
@@ -1780,16 +1385,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>48</v>
@@ -1797,16 +1402,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>48</v>
@@ -1814,16 +1419,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>48</v>
@@ -1831,16 +1436,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -1848,16 +1453,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>48</v>
@@ -1865,16 +1470,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>48</v>
@@ -1882,16 +1487,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>48</v>
@@ -1899,16 +1504,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <v>48</v>
@@ -1916,16 +1521,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>48</v>
@@ -1933,16 +1538,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>48</v>
@@ -1950,16 +1555,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>48</v>
@@ -1967,16 +1572,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>48</v>
@@ -1984,16 +1589,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>48</v>
@@ -2001,16 +1606,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -2018,16 +1623,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>48</v>
@@ -2035,16 +1640,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>48</v>
@@ -2052,16 +1657,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G36">
         <v>48</v>
@@ -2069,16 +1674,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>48</v>
@@ -2086,10 +1691,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2103,16 +1708,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G39">
         <v>48</v>
@@ -2120,16 +1725,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G40">
         <v>48</v>
@@ -2137,16 +1742,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G41">
         <v>48</v>
@@ -2154,16 +1759,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>48</v>
@@ -2171,16 +1776,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>48</v>
@@ -2188,16 +1793,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>48</v>
@@ -2205,16 +1810,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>48</v>
@@ -2222,16 +1827,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G46">
         <v>48</v>
@@ -2239,16 +1844,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G47">
         <v>48</v>
@@ -2256,16 +1861,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>48</v>
@@ -2273,16 +1878,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <v>48</v>
@@ -2290,16 +1895,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G50">
         <v>48</v>
@@ -2307,16 +1912,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G51">
         <v>48</v>
@@ -2324,16 +1929,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>48</v>
@@ -2341,16 +1946,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G53">
         <v>48</v>
@@ -2358,16 +1963,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G54">
         <v>48</v>
@@ -2375,16 +1980,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G55">
         <v>48</v>
@@ -2392,16 +1997,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G56">
         <v>48</v>
@@ -2409,16 +2014,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>48</v>
@@ -2426,16 +2031,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>48</v>
@@ -2443,16 +2048,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59">
         <v>48</v>
@@ -2460,16 +2065,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>48</v>
@@ -2477,16 +2082,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G61">
         <v>48</v>
@@ -2494,16 +2099,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>48</v>
@@ -2511,16 +2116,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63">
         <v>48</v>
@@ -2528,16 +2133,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -2545,16 +2150,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G65">
         <v>48</v>
@@ -2562,16 +2167,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <v>48</v>
@@ -2579,16 +2184,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>48</v>
@@ -2596,16 +2201,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G68">
         <v>48</v>
@@ -2613,16 +2218,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G69">
         <v>48</v>
@@ -2630,16 +2235,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>48</v>
@@ -2656,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>48</v>
@@ -2673,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G72">
         <v>48</v>
@@ -2681,16 +2286,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>48</v>
@@ -2698,16 +2303,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G74">
         <v>48</v>
@@ -2715,16 +2320,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G75">
         <v>48</v>
@@ -2732,16 +2337,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G76">
         <v>48</v>
@@ -2749,16 +2354,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>48</v>
@@ -2766,16 +2371,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G78">
         <v>48</v>
@@ -2783,16 +2388,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>48</v>
@@ -2800,16 +2405,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G80">
         <v>48</v>
@@ -2817,16 +2422,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G81">
         <v>48</v>
@@ -2834,16 +2439,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G82">
         <v>48</v>
@@ -2851,16 +2456,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G83">
         <v>48</v>
@@ -2868,16 +2473,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <v>48</v>
@@ -2885,16 +2490,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>48</v>
@@ -2902,16 +2507,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>48</v>
@@ -2919,16 +2524,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G87">
         <v>48</v>
@@ -2936,16 +2541,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>48</v>
@@ -2953,16 +2558,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G89">
         <v>48</v>
@@ -2970,16 +2575,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G90">
         <v>48</v>
@@ -2987,16 +2592,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>48</v>
@@ -3004,16 +2609,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G92">
         <v>48</v>
@@ -3021,16 +2626,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G93">
         <v>48</v>
@@ -3038,16 +2643,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>48</v>
@@ -3055,16 +2660,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G95">
         <v>48</v>
@@ -3072,16 +2677,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>48</v>
@@ -3089,16 +2694,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G97">
         <v>48</v>
@@ -3106,16 +2711,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G98">
         <v>48</v>
@@ -3123,16 +2728,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>48</v>
@@ -3140,16 +2745,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>48</v>
@@ -3157,16 +2762,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G101">
         <v>48</v>
@@ -3174,16 +2779,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>48</v>
@@ -3191,16 +2796,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G103">
         <v>48</v>
@@ -3208,16 +2813,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G104">
         <v>48</v>
@@ -3225,16 +2830,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G105">
         <v>48</v>
@@ -3242,16 +2847,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G106">
         <v>48</v>
@@ -3259,16 +2864,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>48</v>
@@ -3276,16 +2881,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G108">
         <v>48</v>
@@ -3293,16 +2898,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G109">
         <v>48</v>
@@ -3310,16 +2915,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G110">
         <v>48</v>
@@ -3327,16 +2932,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G111">
         <v>48</v>
@@ -3344,16 +2949,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>48</v>
@@ -3361,16 +2966,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>48</v>
@@ -3378,16 +2983,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G114">
         <v>48</v>
@@ -3395,16 +3000,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G115">
         <v>48</v>
@@ -3412,16 +3017,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>48</v>
@@ -3429,16 +3034,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B117" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G117">
         <v>48</v>
@@ -3446,16 +3051,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G118">
         <v>48</v>
@@ -3463,16 +3068,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>48</v>
@@ -3480,16 +3085,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G120">
         <v>48</v>
@@ -3497,16 +3102,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G121">
         <v>48</v>
@@ -3514,16 +3119,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G122">
         <v>48</v>
@@ -3531,16 +3136,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>48</v>
@@ -3548,16 +3153,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>48</v>
@@ -3565,16 +3170,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G125">
         <v>48</v>
@@ -3582,16 +3187,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G126">
         <v>48</v>
@@ -3599,16 +3204,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G127">
         <v>48</v>
@@ -3616,16 +3221,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G128">
         <v>48</v>
@@ -3633,16 +3238,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G129">
         <v>48</v>
@@ -3650,16 +3255,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G130">
         <v>48</v>
@@ -3667,16 +3272,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>48</v>
@@ -3684,16 +3289,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G132">
         <v>48</v>
@@ -3701,16 +3306,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G133">
         <v>48</v>
@@ -3718,16 +3323,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G134">
         <v>48</v>
@@ -3735,16 +3340,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G135">
         <v>48</v>
@@ -3752,16 +3357,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G136">
         <v>48</v>
@@ -3769,16 +3374,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>48</v>
@@ -3786,16 +3391,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G138">
         <v>48</v>
@@ -3803,16 +3408,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G139">
         <v>48</v>
@@ -3820,16 +3425,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>48</v>
@@ -3837,16 +3442,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G141">
         <v>48</v>
@@ -3854,16 +3459,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G142">
         <v>48</v>
@@ -3871,16 +3476,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>48</v>
@@ -3888,16 +3493,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G144">
         <v>48</v>
@@ -3905,16 +3510,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>48</v>
@@ -3922,16 +3527,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>48</v>
@@ -3939,10 +3544,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3956,16 +3561,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G148">
         <v>48</v>
@@ -3973,16 +3578,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G149">
         <v>48</v>
@@ -3990,16 +3595,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G150">
         <v>48</v>
@@ -4007,16 +3612,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>48</v>
@@ -4024,16 +3629,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G152">
         <v>48</v>
@@ -4041,16 +3646,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G153">
         <v>48</v>
@@ -4058,16 +3663,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G154">
         <v>48</v>
@@ -4075,16 +3680,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="B155" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G155">
         <v>48</v>
@@ -4092,16 +3697,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>48</v>
@@ -4109,16 +3714,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G157">
         <v>48</v>
@@ -4126,16 +3731,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B158" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G158">
         <v>48</v>
@@ -4143,16 +3748,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>48</v>
@@ -4160,16 +3765,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B160" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G160">
         <v>48</v>
@@ -4177,16 +3782,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B161" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>48</v>
@@ -4194,16 +3799,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B162" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G162">
         <v>48</v>
@@ -4211,16 +3816,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G163">
         <v>48</v>
@@ -4228,16 +3833,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>48</v>
@@ -4245,16 +3850,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G165">
         <v>48</v>
@@ -4262,16 +3867,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G166">
         <v>48</v>
@@ -4279,16 +3884,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G167">
         <v>48</v>
@@ -4296,16 +3901,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B168" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>48</v>
@@ -4313,16 +3918,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B169" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G169">
         <v>48</v>
@@ -4330,16 +3935,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B170" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G170">
         <v>48</v>
@@ -4347,16 +3952,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B171" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G171">
         <v>48</v>
@@ -4364,16 +3969,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B172" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G172">
         <v>48</v>
@@ -4381,16 +3986,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B173" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G173">
         <v>48</v>
@@ -4398,16 +4003,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B174" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G174">
         <v>48</v>
@@ -4415,16 +4020,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B175" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G175">
         <v>48</v>
@@ -4432,16 +4037,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B176" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G176">
         <v>48</v>
@@ -4449,10 +4054,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B177" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4466,16 +4071,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G178">
         <v>48</v>
@@ -4483,16 +4088,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B179" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>48</v>
@@ -4500,16 +4105,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B180" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G180">
         <v>48</v>
@@ -4517,16 +4122,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G181">
         <v>48</v>
@@ -4534,16 +4139,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>48</v>
@@ -4551,2080 +4156,23 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B183" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G183">
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>233</v>
-      </c>
-      <c r="B184" t="s">
-        <v>233</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
-        <v>92</v>
-      </c>
-      <c r="B185" t="s">
-        <v>92</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
-        <v>234</v>
-      </c>
-      <c r="B186" t="s">
-        <v>234</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
-        <v>235</v>
-      </c>
-      <c r="B187" t="s">
-        <v>235</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
-        <v>236</v>
-      </c>
-      <c r="B188" t="s">
-        <v>236</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>34</v>
-      </c>
-      <c r="G188">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>237</v>
-      </c>
-      <c r="B189" t="s">
-        <v>237</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>238</v>
-      </c>
-      <c r="B190" t="s">
-        <v>238</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>23</v>
-      </c>
-      <c r="G190">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
-        <v>89</v>
-      </c>
-      <c r="B191" t="s">
-        <v>89</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G191">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
-        <v>239</v>
-      </c>
-      <c r="B192" t="s">
-        <v>239</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>36</v>
-      </c>
-      <c r="G192">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
-        <v>240</v>
-      </c>
-      <c r="B193" t="s">
-        <v>240</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193" t="s">
-        <v>47</v>
-      </c>
-      <c r="G193">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
-        <v>97</v>
-      </c>
-      <c r="B194" t="s">
-        <v>97</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>41</v>
-      </c>
-      <c r="G194">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
-        <v>241</v>
-      </c>
-      <c r="B195" t="s">
-        <v>241</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>26</v>
-      </c>
-      <c r="G195">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
-        <v>92</v>
-      </c>
-      <c r="B196" t="s">
-        <v>92</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196" t="s">
-        <v>53</v>
-      </c>
-      <c r="G196">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
-        <v>242</v>
-      </c>
-      <c r="B197" t="s">
-        <v>242</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
-        <v>243</v>
-      </c>
-      <c r="B198" t="s">
-        <v>243</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
-        <v>97</v>
-      </c>
-      <c r="B199" t="s">
-        <v>97</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>50</v>
-      </c>
-      <c r="G199">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A200" t="s">
-        <v>244</v>
-      </c>
-      <c r="B200" t="s">
-        <v>244</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200" t="s">
-        <v>29</v>
-      </c>
-      <c r="G200">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
-        <v>97</v>
-      </c>
-      <c r="B201" t="s">
-        <v>97</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201" t="s">
-        <v>9</v>
-      </c>
-      <c r="G201">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
-        <v>245</v>
-      </c>
-      <c r="B202" t="s">
-        <v>245</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
-        <v>97</v>
-      </c>
-      <c r="B203" t="s">
-        <v>97</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
-        <v>92</v>
-      </c>
-      <c r="B204" t="s">
-        <v>92</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>49</v>
-      </c>
-      <c r="G204">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
-        <v>246</v>
-      </c>
-      <c r="B205" t="s">
-        <v>246</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
-        <v>247</v>
-      </c>
-      <c r="B206" t="s">
-        <v>247</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>35</v>
-      </c>
-      <c r="G206">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A207" t="s">
-        <v>92</v>
-      </c>
-      <c r="B207" t="s">
-        <v>92</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207" t="s">
-        <v>37</v>
-      </c>
-      <c r="G207">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
-        <v>97</v>
-      </c>
-      <c r="B208" t="s">
-        <v>97</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
-        <v>97</v>
-      </c>
-      <c r="B209" t="s">
-        <v>97</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209" t="s">
-        <v>39</v>
-      </c>
-      <c r="G209">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
-        <v>248</v>
-      </c>
-      <c r="B210" t="s">
-        <v>248</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A211" t="s">
-        <v>249</v>
-      </c>
-      <c r="B211" t="s">
-        <v>249</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>13</v>
-      </c>
-      <c r="G211">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A212" t="s">
-        <v>250</v>
-      </c>
-      <c r="B212" t="s">
-        <v>250</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212" t="s">
-        <v>49</v>
-      </c>
-      <c r="G212">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" t="s">
-        <v>92</v>
-      </c>
-      <c r="B213" t="s">
-        <v>92</v>
-      </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-      <c r="E213" t="s">
-        <v>25</v>
-      </c>
-      <c r="G213">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" t="s">
-        <v>251</v>
-      </c>
-      <c r="B214" t="s">
-        <v>251</v>
-      </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="E214" t="s">
-        <v>25</v>
-      </c>
-      <c r="G214">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
-        <v>251</v>
-      </c>
-      <c r="B215" t="s">
-        <v>251</v>
-      </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-      <c r="E215" t="s">
-        <v>31</v>
-      </c>
-      <c r="G215">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
-        <v>251</v>
-      </c>
-      <c r="B216" t="s">
-        <v>251</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
-        <v>252</v>
-      </c>
-      <c r="B217" t="s">
-        <v>252</v>
-      </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>40</v>
-      </c>
-      <c r="G217">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
-        <v>253</v>
-      </c>
-      <c r="B218" t="s">
-        <v>253</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>48</v>
-      </c>
-      <c r="G218">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
-        <v>254</v>
-      </c>
-      <c r="B219" t="s">
-        <v>254</v>
-      </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219" t="s">
-        <v>28</v>
-      </c>
-      <c r="G219">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
-        <v>255</v>
-      </c>
-      <c r="B220" t="s">
-        <v>255</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>42</v>
-      </c>
-      <c r="G220">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
-        <v>256</v>
-      </c>
-      <c r="B221" t="s">
-        <v>256</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221" t="s">
-        <v>38</v>
-      </c>
-      <c r="G221">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
-        <v>257</v>
-      </c>
-      <c r="B222" t="s">
-        <v>257</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222" t="s">
-        <v>15</v>
-      </c>
-      <c r="G222">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
-        <v>258</v>
-      </c>
-      <c r="B223" t="s">
-        <v>258</v>
-      </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-      <c r="E223" t="s">
-        <v>31</v>
-      </c>
-      <c r="G223">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
-        <v>259</v>
-      </c>
-      <c r="B224" t="s">
-        <v>259</v>
-      </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224" t="s">
-        <v>42</v>
-      </c>
-      <c r="G224">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
-        <v>260</v>
-      </c>
-      <c r="B225" t="s">
-        <v>260</v>
-      </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225" t="s">
-        <v>47</v>
-      </c>
-      <c r="G225">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
-        <v>261</v>
-      </c>
-      <c r="B226" t="s">
-        <v>261</v>
-      </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226" t="s">
-        <v>24</v>
-      </c>
-      <c r="G226">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
-        <v>262</v>
-      </c>
-      <c r="B227" t="s">
-        <v>262</v>
-      </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>30</v>
-      </c>
-      <c r="G227">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
-        <v>263</v>
-      </c>
-      <c r="B228" t="s">
-        <v>263</v>
-      </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228" t="s">
-        <v>33</v>
-      </c>
-      <c r="G228">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>264</v>
-      </c>
-      <c r="B229" t="s">
-        <v>264</v>
-      </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229" t="s">
-        <v>28</v>
-      </c>
-      <c r="G229">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
-        <v>265</v>
-      </c>
-      <c r="B230" t="s">
-        <v>265</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230" t="s">
-        <v>51</v>
-      </c>
-      <c r="G230">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>266</v>
-      </c>
-      <c r="B231" t="s">
-        <v>266</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231" t="s">
-        <v>23</v>
-      </c>
-      <c r="G231">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>267</v>
-      </c>
-      <c r="B232" t="s">
-        <v>267</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232" t="s">
-        <v>22</v>
-      </c>
-      <c r="G232">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>268</v>
-      </c>
-      <c r="B233" t="s">
-        <v>268</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233" t="s">
-        <v>35</v>
-      </c>
-      <c r="G233">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>269</v>
-      </c>
-      <c r="B234" t="s">
-        <v>269</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234" t="s">
-        <v>38</v>
-      </c>
-      <c r="G234">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
-        <v>270</v>
-      </c>
-      <c r="B235" t="s">
-        <v>270</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235" t="s">
-        <v>47</v>
-      </c>
-      <c r="G235">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
-        <v>271</v>
-      </c>
-      <c r="B236" t="s">
-        <v>271</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
-        <v>272</v>
-      </c>
-      <c r="B237" t="s">
-        <v>272</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
-      <c r="E237" t="s">
-        <v>46</v>
-      </c>
-      <c r="G237">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
-        <v>273</v>
-      </c>
-      <c r="B238" t="s">
-        <v>273</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238" t="s">
-        <v>44</v>
-      </c>
-      <c r="G238">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
-        <v>274</v>
-      </c>
-      <c r="B239" t="s">
-        <v>274</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239" t="s">
-        <v>52</v>
-      </c>
-      <c r="G239">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>275</v>
-      </c>
-      <c r="B240" t="s">
-        <v>275</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240" t="s">
-        <v>49</v>
-      </c>
-      <c r="G240">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
-        <v>276</v>
-      </c>
-      <c r="B241" t="s">
-        <v>276</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>97</v>
-      </c>
-      <c r="B242" t="s">
-        <v>97</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242" t="s">
-        <v>29</v>
-      </c>
-      <c r="G242">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
-        <v>277</v>
-      </c>
-      <c r="B243" t="s">
-        <v>277</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243" t="s">
-        <v>23</v>
-      </c>
-      <c r="G243">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
-        <v>92</v>
-      </c>
-      <c r="B244" t="s">
-        <v>92</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244" t="s">
-        <v>44</v>
-      </c>
-      <c r="G244">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
-        <v>278</v>
-      </c>
-      <c r="B245" t="s">
-        <v>278</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245" t="s">
-        <v>36</v>
-      </c>
-      <c r="G245">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>279</v>
-      </c>
-      <c r="B246" t="s">
-        <v>279</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246" t="s">
-        <v>17</v>
-      </c>
-      <c r="G246">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
-        <v>280</v>
-      </c>
-      <c r="B247" t="s">
-        <v>280</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247" t="s">
-        <v>21</v>
-      </c>
-      <c r="G247">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
-        <v>281</v>
-      </c>
-      <c r="B248" t="s">
-        <v>281</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248" t="s">
-        <v>48</v>
-      </c>
-      <c r="G248">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
-        <v>282</v>
-      </c>
-      <c r="B249" t="s">
-        <v>282</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249" t="s">
-        <v>50</v>
-      </c>
-      <c r="G249">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
-        <v>283</v>
-      </c>
-      <c r="B250" t="s">
-        <v>283</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-      <c r="E250" t="s">
-        <v>24</v>
-      </c>
-      <c r="G250">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
-        <v>284</v>
-      </c>
-      <c r="B251" t="s">
-        <v>284</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251" t="s">
-        <v>7</v>
-      </c>
-      <c r="G251">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
-        <v>285</v>
-      </c>
-      <c r="B252" t="s">
-        <v>285</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252" t="s">
-        <v>31</v>
-      </c>
-      <c r="G252">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
-        <v>286</v>
-      </c>
-      <c r="B253" t="s">
-        <v>286</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253" t="s">
-        <v>43</v>
-      </c>
-      <c r="G253">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
-        <v>287</v>
-      </c>
-      <c r="B254" t="s">
-        <v>287</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254" t="s">
-        <v>43</v>
-      </c>
-      <c r="G254">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
-        <v>288</v>
-      </c>
-      <c r="B255" t="s">
-        <v>288</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255" t="s">
-        <v>47</v>
-      </c>
-      <c r="G255">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
-        <v>289</v>
-      </c>
-      <c r="B256" t="s">
-        <v>289</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256" t="s">
-        <v>8</v>
-      </c>
-      <c r="G256">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
-        <v>290</v>
-      </c>
-      <c r="B257" t="s">
-        <v>290</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257" t="s">
-        <v>22</v>
-      </c>
-      <c r="G257">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
-        <v>291</v>
-      </c>
-      <c r="B258" t="s">
-        <v>291</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258" t="s">
-        <v>40</v>
-      </c>
-      <c r="G258">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
-        <v>292</v>
-      </c>
-      <c r="B259" t="s">
-        <v>292</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259" t="s">
-        <v>26</v>
-      </c>
-      <c r="G259">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
-        <v>293</v>
-      </c>
-      <c r="B260" t="s">
-        <v>293</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260" t="s">
-        <v>19</v>
-      </c>
-      <c r="G260">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
-        <v>294</v>
-      </c>
-      <c r="B261" t="s">
-        <v>294</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261" t="s">
-        <v>31</v>
-      </c>
-      <c r="G261">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
-        <v>295</v>
-      </c>
-      <c r="B262" t="s">
-        <v>295</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262" t="s">
-        <v>19</v>
-      </c>
-      <c r="G262">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
-        <v>296</v>
-      </c>
-      <c r="B263" t="s">
-        <v>296</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263" t="s">
-        <v>44</v>
-      </c>
-      <c r="G263">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
-        <v>297</v>
-      </c>
-      <c r="B264" t="s">
-        <v>297</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264" t="s">
-        <v>46</v>
-      </c>
-      <c r="G264">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
-        <v>298</v>
-      </c>
-      <c r="B265" t="s">
-        <v>298</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265" t="s">
-        <v>26</v>
-      </c>
-      <c r="G265">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
-        <v>299</v>
-      </c>
-      <c r="B266" t="s">
-        <v>299</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266" t="s">
-        <v>41</v>
-      </c>
-      <c r="G266">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
-        <v>300</v>
-      </c>
-      <c r="B267" t="s">
-        <v>300</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267" t="s">
-        <v>50</v>
-      </c>
-      <c r="G267">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
-        <v>301</v>
-      </c>
-      <c r="B268" t="s">
-        <v>301</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268" t="s">
-        <v>49</v>
-      </c>
-      <c r="G268">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
-        <v>302</v>
-      </c>
-      <c r="B269" t="s">
-        <v>302</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269" t="s">
-        <v>25</v>
-      </c>
-      <c r="G269">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
-        <v>303</v>
-      </c>
-      <c r="B270" t="s">
-        <v>303</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270" t="s">
-        <v>29</v>
-      </c>
-      <c r="G270">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
-        <v>304</v>
-      </c>
-      <c r="B271" t="s">
-        <v>304</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271" t="s">
-        <v>18</v>
-      </c>
-      <c r="G271">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
-        <v>305</v>
-      </c>
-      <c r="B272" t="s">
-        <v>305</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272" t="s">
-        <v>40</v>
-      </c>
-      <c r="G272">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
-        <v>306</v>
-      </c>
-      <c r="B273" t="s">
-        <v>306</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273" t="s">
-        <v>52</v>
-      </c>
-      <c r="G273">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
-        <v>307</v>
-      </c>
-      <c r="B274" t="s">
-        <v>307</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274" t="s">
-        <v>25</v>
-      </c>
-      <c r="G274">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
-        <v>308</v>
-      </c>
-      <c r="B275" t="s">
-        <v>308</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275" t="s">
-        <v>11</v>
-      </c>
-      <c r="G275">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
-        <v>309</v>
-      </c>
-      <c r="B276" t="s">
-        <v>309</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276" t="s">
-        <v>25</v>
-      </c>
-      <c r="G276">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
-        <v>310</v>
-      </c>
-      <c r="B277" t="s">
-        <v>310</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277" t="s">
-        <v>42</v>
-      </c>
-      <c r="G277">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
-        <v>311</v>
-      </c>
-      <c r="B278" t="s">
-        <v>311</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278" t="s">
-        <v>21</v>
-      </c>
-      <c r="G278">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
-        <v>312</v>
-      </c>
-      <c r="B279" t="s">
-        <v>312</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
-        <v>313</v>
-      </c>
-      <c r="B280" t="s">
-        <v>313</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280" t="s">
-        <v>36</v>
-      </c>
-      <c r="G280">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
-        <v>314</v>
-      </c>
-      <c r="B281" t="s">
-        <v>314</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281" t="s">
-        <v>11</v>
-      </c>
-      <c r="G281">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
-        <v>315</v>
-      </c>
-      <c r="B282" t="s">
-        <v>315</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282" t="s">
-        <v>34</v>
-      </c>
-      <c r="G282">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
-        <v>316</v>
-      </c>
-      <c r="B283" t="s">
-        <v>316</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283" t="s">
-        <v>30</v>
-      </c>
-      <c r="G283">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
-        <v>317</v>
-      </c>
-      <c r="B284" t="s">
-        <v>317</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284" t="s">
-        <v>29</v>
-      </c>
-      <c r="G284">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
-        <v>318</v>
-      </c>
-      <c r="B285" t="s">
-        <v>318</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285" t="s">
-        <v>34</v>
-      </c>
-      <c r="G285">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
-        <v>319</v>
-      </c>
-      <c r="B286" t="s">
-        <v>319</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286" t="s">
-        <v>53</v>
-      </c>
-      <c r="G286">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
-        <v>320</v>
-      </c>
-      <c r="B287" t="s">
-        <v>320</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287" t="s">
-        <v>48</v>
-      </c>
-      <c r="G287">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
-        <v>321</v>
-      </c>
-      <c r="B288" t="s">
-        <v>321</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288" t="s">
-        <v>19</v>
-      </c>
-      <c r="G288">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
-        <v>322</v>
-      </c>
-      <c r="B289" t="s">
-        <v>322</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289" t="s">
-        <v>36</v>
-      </c>
-      <c r="G289">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
-        <v>323</v>
-      </c>
-      <c r="B290" t="s">
-        <v>323</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290" t="s">
-        <v>53</v>
-      </c>
-      <c r="G290">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A291" t="s">
-        <v>324</v>
-      </c>
-      <c r="B291" t="s">
-        <v>324</v>
-      </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291" t="s">
-        <v>26</v>
-      </c>
-      <c r="G291">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A292" t="s">
-        <v>325</v>
-      </c>
-      <c r="B292" t="s">
-        <v>325</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292" t="s">
-        <v>42</v>
-      </c>
-      <c r="G292">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A293" t="s">
-        <v>326</v>
-      </c>
-      <c r="B293" t="s">
-        <v>326</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
-        <v>327</v>
-      </c>
-      <c r="B294" t="s">
-        <v>327</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-      <c r="E294" t="s">
-        <v>25</v>
-      </c>
-      <c r="G294">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A295" t="s">
-        <v>328</v>
-      </c>
-      <c r="B295" t="s">
-        <v>328</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295" t="s">
-        <v>48</v>
-      </c>
-      <c r="G295">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A296" t="s">
-        <v>329</v>
-      </c>
-      <c r="B296" t="s">
-        <v>329</v>
-      </c>
-      <c r="D296">
-        <v>0</v>
-      </c>
-      <c r="E296" t="s">
-        <v>8</v>
-      </c>
-      <c r="G296">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A297" t="s">
-        <v>330</v>
-      </c>
-      <c r="B297" t="s">
-        <v>330</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297" t="s">
-        <v>21</v>
-      </c>
-      <c r="G297">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A298" t="s">
-        <v>331</v>
-      </c>
-      <c r="B298" t="s">
-        <v>331</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-      <c r="E298" t="s">
-        <v>47</v>
-      </c>
-      <c r="G298">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A299" t="s">
-        <v>332</v>
-      </c>
-      <c r="B299" t="s">
-        <v>332</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299" t="s">
-        <v>20</v>
-      </c>
-      <c r="G299">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A300" t="s">
-        <v>333</v>
-      </c>
-      <c r="B300" t="s">
-        <v>333</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300" t="s">
-        <v>39</v>
-      </c>
-      <c r="G300">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
-        <v>334</v>
-      </c>
-      <c r="B301" t="s">
-        <v>334</v>
-      </c>
-      <c r="D301">
-        <v>0</v>
-      </c>
-      <c r="E301" t="s">
-        <v>23</v>
-      </c>
-      <c r="G301">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
-        <v>335</v>
-      </c>
-      <c r="B302" t="s">
-        <v>335</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A303" t="s">
-        <v>336</v>
-      </c>
-      <c r="B303" t="s">
-        <v>336</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303" t="s">
-        <v>49</v>
-      </c>
-      <c r="G303">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A304" t="s">
-        <v>337</v>
-      </c>
-      <c r="B304" t="s">
-        <v>337</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304" t="s">
-        <v>48</v>
-      </c>
-      <c r="G304">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6632,7 +4180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/crawler/contentxls/content.xlsx
+++ b/crawler/contentxls/content.xlsx
@@ -593,11 +593,27 @@
     <t>http://www.baidu.com/link?url=c0cN-Ru-5UFxC-XwJ7Bn6WnYKtqCeAIf0O8ZbGYkZ9iS2YIWa8Hdh3b5TjmUKrVDYdRe9Hmvg-aOp5mYTx6Coq</t>
   </si>
   <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛板筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fid</t>
+    <t>牛板金 跑路 逾期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -605,27 +621,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keywords</t>
+    <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛板筋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛板金 跑路 逾期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from</t>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
         <v>196</v>
-      </c>
-      <c r="I1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2002,18 +2002,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
       <c r="B1" t="s">
         <v>189</v>
       </c>
@@ -2023,22 +2026,19 @@
       <c r="D1" t="s">
         <v>191</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>193</v>
+      <c r="B2">
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
         <v>135</v>
       </c>
-      <c r="E2" t="s">
-        <v>195</v>
+      <c r="D2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
